--- a/election/src/main/resources/database/election-inserts.xlsx
+++ b/election/src/main/resources/database/election-inserts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GraduateStudies\db_systems\final-project-repo\election\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GraduateStudies\db_systems\final-project-repo\election\src\main\resources\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F148003-7742-4A83-AA44-570E77B012C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E974543-6462-4CEF-B3B9-0BF94C983648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{CF11789D-A1C1-4EA3-82EE-040757E1459A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{CF11789D-A1C1-4EA3-82EE-040757E1459A}"/>
   </bookViews>
   <sheets>
     <sheet name="ELECTION" sheetId="1" r:id="rId1"/>
@@ -783,10 +783,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1674,16 +1673,16 @@
       <c r="A10" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1710,16 +1709,16 @@
       <c r="A11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>213</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1746,16 +1745,16 @@
       <c r="A12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>214</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1782,16 +1781,16 @@
       <c r="A13" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>215</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1818,16 +1817,16 @@
       <c r="A14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>216</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1854,16 +1853,16 @@
       <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1890,16 +1889,16 @@
       <c r="A16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>218</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1926,16 +1925,16 @@
       <c r="A17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>221</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1962,16 +1961,16 @@
       <c r="A18" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>219</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1998,16 +1997,16 @@
       <c r="A19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -2043,7 +2042,7 @@
       <c r="D20" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>222</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -2079,7 +2078,7 @@
       <c r="D21" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -2115,7 +2114,7 @@
       <c r="D22" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>224</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -2151,7 +2150,7 @@
       <c r="D23" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -2187,7 +2186,7 @@
       <c r="D24" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>226</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -2223,7 +2222,7 @@
       <c r="D25" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>227</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2259,7 +2258,7 @@
       <c r="D26" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2295,7 +2294,7 @@
       <c r="D27" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -2366,7 +2365,7 @@
         <v>94</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C12" si="0">CONCATENATE( "INSERT INTO OFFICE VALUES(", A3, ",", B3, ");")</f>
+        <f t="shared" ref="C3:C10" si="0">CONCATENATE( "INSERT INTO OFFICE VALUES(", A3, ",", B3, ");")</f>
         <v>INSERT INTO OFFICE VALUES(91,'City Attorney');</v>
       </c>
     </row>
@@ -3520,8 +3519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F1C548-88B6-4D52-821D-479EDF6DFA13}">
   <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="O208" sqref="O208"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3554,8 +3553,8 @@
         <v>5</v>
       </c>
       <c r="D2" t="str">
-        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A2, ",", B2, ",", C2, ");")</f>
-        <v>INSERT INTO VOTES VALUES(1,12,3);</v>
+        <f>CONCATENATE("INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(",A2, ",", B2, ",", C2, ");")</f>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(1,12,3);</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3569,8 +3568,8 @@
         <v>5</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="0">CONCATENATE("INSERT INTO VOTES VALUES(",A3, ",", B3, ",", C3, ");")</f>
-        <v>INSERT INTO VOTES VALUES(2,11,3);</v>
+        <f t="shared" ref="D3:D66" si="0">CONCATENATE("INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(",A3, ",", B3, ",", C3, ");")</f>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(2,11,3);</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3585,7 +3584,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(2,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(2,12,3);</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3600,7 +3599,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(1,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(1,13,3);</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3615,7 +3614,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(2,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(2,14,3);</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3630,7 +3629,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(2,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(2,11,3);</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3645,7 +3644,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(2,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(2,14,3);</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3660,7 +3659,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(1,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(1,13,3);</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3675,7 +3674,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(2,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(2,14,3);</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3690,7 +3689,7 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(1,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(1,11,3);</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3705,7 +3704,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(2,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(2,14,3);</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3720,7 +3719,7 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(2,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(2,13,3);</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3735,7 +3734,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(2,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(2,12,3);</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3750,7 +3749,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(2,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(2,11,3);</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3765,7 +3764,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(2,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(2,13,3);</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3780,7 +3779,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(1,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(1,11,3);</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3795,7 +3794,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(1,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(1,12,3);</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3810,7 +3809,7 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(2,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(2,13,3);</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3825,7 +3824,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(2,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(2,13,3);</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3840,7 +3839,7 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(2,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(2,13,3);</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3855,7 +3854,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(2,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(2,11,3);</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3870,7 +3869,7 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(1,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(1,12,3);</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3885,7 +3884,7 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(2,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(2,14,3);</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3900,7 +3899,7 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(1,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(1,14,3);</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3915,7 +3914,7 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(2,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(2,13,3);</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3930,7 +3929,7 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(1,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(1,14,3);</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3945,7 +3944,7 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(3,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(3,13,3);</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3960,7 +3959,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(3,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(3,12,3);</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3975,7 +3974,7 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(4,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(4,14,3);</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3990,7 +3989,7 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(3,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(3,14,3);</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4005,7 +4004,7 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(4,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(4,13,3);</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4020,7 +4019,7 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(4,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(4,12,3);</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4035,7 +4034,7 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(4,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(4,14,3);</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4050,7 +4049,7 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(3,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(3,12,3);</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4065,7 +4064,7 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(3,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(3,14,3);</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4080,7 +4079,7 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(4,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(4,14,3);</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4095,7 +4094,7 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(4,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(4,11,3);</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4110,7 +4109,7 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(3,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(3,11,3);</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4125,7 +4124,7 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(4,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(4,11,3);</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4140,7 +4139,7 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(3,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(3,11,3);</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -4155,7 +4154,7 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(4,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(4,12,3);</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4170,7 +4169,7 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(4,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(4,11,3);</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4185,7 +4184,7 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(4,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(4,11,3);</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4200,7 +4199,7 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(4,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(4,13,3);</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4215,7 +4214,7 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(4,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(4,13,3);</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4230,7 +4229,7 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(4,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(4,14,3);</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -4245,7 +4244,7 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(3,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(3,14,3);</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4260,7 +4259,7 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(3,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(3,12,3);</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4275,7 +4274,7 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(3,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(3,14,3);</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4290,7 +4289,7 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(4,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(4,13,3);</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -4305,7 +4304,7 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(4,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(4,12,3);</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4320,7 +4319,7 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(3,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(3,14,3);</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4335,7 +4334,7 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(5,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(5,13,3);</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4350,7 +4349,7 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(6,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(6,14,3);</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4365,7 +4364,7 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(6,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(6,14,3);</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4380,7 +4379,7 @@
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(5,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(5,11,3);</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4395,7 +4394,7 @@
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(6,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(6,11,3);</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4410,7 +4409,7 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(6,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(6,14,3);</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4425,7 +4424,7 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(6,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(6,11,3);</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4440,7 +4439,7 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(5,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(5,12,3);</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4455,7 +4454,7 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(6,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(6,13,3);</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -4470,7 +4469,7 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(5,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(5,11,3);</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4485,7 +4484,7 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(6,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(6,11,3);</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4500,7 +4499,7 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(6,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(6,11,3);</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4515,7 +4514,7 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO VOTES VALUES(6,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(6,13,3);</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4529,8 +4528,8 @@
         <v>5</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D130" si="1">CONCATENATE("INSERT INTO VOTES VALUES(",A67, ",", B67, ",", C67, ");")</f>
-        <v>INSERT INTO VOTES VALUES(5,12,3);</v>
+        <f t="shared" ref="D67:D130" si="1">CONCATENATE("INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(",A67, ",", B67, ",", C67, ");")</f>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(5,12,3);</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4545,7 +4544,7 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(5,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(5,11,3);</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4560,7 +4559,7 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(6,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(6,11,3);</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4575,7 +4574,7 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(6,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(6,11,3);</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4590,7 +4589,7 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(5,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(5,14,3);</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4605,7 +4604,7 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(6,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(6,12,3);</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4620,7 +4619,7 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(6,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(6,11,3);</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4635,7 +4634,7 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(5,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(5,13,3);</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4650,7 +4649,7 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(5,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(5,14,3);</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -4665,7 +4664,7 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(5,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(5,12,3);</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4680,7 +4679,7 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(5,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(5,13,3);</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4695,7 +4694,7 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(5,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(5,12,3);</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -4710,7 +4709,7 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(6,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(6,11,3);</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4725,7 +4724,7 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(8,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(8,13,3);</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -4740,7 +4739,7 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(8,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(8,14,3);</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4755,7 +4754,7 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(8,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(8,14,3);</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4770,7 +4769,7 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(7,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(7,13,3);</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4785,7 +4784,7 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(8,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(8,14,3);</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4800,7 +4799,7 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(8,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(8,12,3);</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4815,7 +4814,7 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(7,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(7,12,3);</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4830,7 +4829,7 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(7,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(7,11,3);</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4845,7 +4844,7 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(8,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(8,13,3);</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4860,7 +4859,7 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(7,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(7,11,3);</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -4875,7 +4874,7 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(8,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(8,11,3);</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -4890,7 +4889,7 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(7,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(7,11,3);</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -4905,7 +4904,7 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(8,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(8,13,3);</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -4920,7 +4919,7 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(8,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(8,11,3);</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4935,7 +4934,7 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(7,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(7,14,3);</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4950,7 +4949,7 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(8,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(8,11,3);</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4965,7 +4964,7 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(7,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(7,14,3);</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4980,7 +4979,7 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(8,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(8,11,3);</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4995,7 +4994,7 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(7,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(7,12,3);</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -5010,7 +5009,7 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(8,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(8,14,3);</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -5025,7 +5024,7 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(8,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(8,12,3);</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -5040,7 +5039,7 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(7,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(7,12,3);</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -5055,7 +5054,7 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(7,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(7,13,3);</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -5070,7 +5069,7 @@
       </c>
       <c r="D103" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(8,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(8,11,3);</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -5085,7 +5084,7 @@
       </c>
       <c r="D104" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(7,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(7,12,3);</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -5100,7 +5099,7 @@
       </c>
       <c r="D105" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(8,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(8,12,3);</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -5115,7 +5114,7 @@
       </c>
       <c r="D106" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(10,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(10,11,3);</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -5130,7 +5129,7 @@
       </c>
       <c r="D107" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(9,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(9,11,3);</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -5145,7 +5144,7 @@
       </c>
       <c r="D108" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(10,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(10,12,3);</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -5160,7 +5159,7 @@
       </c>
       <c r="D109" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(10,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(10,12,3);</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -5175,7 +5174,7 @@
       </c>
       <c r="D110" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(10,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(10,14,3);</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -5190,7 +5189,7 @@
       </c>
       <c r="D111" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(9,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(9,11,3);</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -5205,7 +5204,7 @@
       </c>
       <c r="D112" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(10,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(10,11,3);</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -5220,7 +5219,7 @@
       </c>
       <c r="D113" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(9,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(9,12,3);</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -5235,7 +5234,7 @@
       </c>
       <c r="D114" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(9,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(9,11,3);</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -5250,7 +5249,7 @@
       </c>
       <c r="D115" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(10,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(10,14,3);</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -5265,7 +5264,7 @@
       </c>
       <c r="D116" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(9,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(9,14,3);</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -5280,7 +5279,7 @@
       </c>
       <c r="D117" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(10,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(10,11,3);</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -5295,7 +5294,7 @@
       </c>
       <c r="D118" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(10,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(10,11,3);</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -5310,7 +5309,7 @@
       </c>
       <c r="D119" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(9,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(9,14,3);</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -5325,7 +5324,7 @@
       </c>
       <c r="D120" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(9,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(9,12,3);</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -5340,7 +5339,7 @@
       </c>
       <c r="D121" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(9,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(9,11,3);</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -5355,7 +5354,7 @@
       </c>
       <c r="D122" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(10,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(10,13,3);</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -5370,7 +5369,7 @@
       </c>
       <c r="D123" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(9,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(9,12,3);</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -5385,7 +5384,7 @@
       </c>
       <c r="D124" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(10,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(10,13,3);</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -5400,7 +5399,7 @@
       </c>
       <c r="D125" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(9,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(9,12,3);</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -5415,7 +5414,7 @@
       </c>
       <c r="D126" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(9,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(9,11,3);</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -5430,7 +5429,7 @@
       </c>
       <c r="D127" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(10,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(10,14,3);</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -5445,7 +5444,7 @@
       </c>
       <c r="D128" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(10,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(10,13,3);</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -5460,7 +5459,7 @@
       </c>
       <c r="D129" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(10,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(10,11,3);</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -5475,7 +5474,7 @@
       </c>
       <c r="D130" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO VOTES VALUES(9,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(9,12,3);</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -5489,8 +5488,8 @@
         <v>5</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D194" si="2">CONCATENATE("INSERT INTO VOTES VALUES(",A131, ",", B131, ",", C131, ");")</f>
-        <v>INSERT INTO VOTES VALUES(9,11,3);</v>
+        <f t="shared" ref="D131:D194" si="2">CONCATENATE("INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(",A131, ",", B131, ",", C131, ");")</f>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(9,11,3);</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -5505,7 +5504,7 @@
       </c>
       <c r="D132" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(12,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(12,13,3);</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -5520,7 +5519,7 @@
       </c>
       <c r="D133" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(12,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(12,11,3);</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -5535,7 +5534,7 @@
       </c>
       <c r="D134" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(11,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(11,13,3);</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -5550,7 +5549,7 @@
       </c>
       <c r="D135" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(11,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(11,13,3);</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -5565,7 +5564,7 @@
       </c>
       <c r="D136" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(11,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(11,13,3);</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5580,7 +5579,7 @@
       </c>
       <c r="D137" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(12,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(12,12,3);</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -5595,7 +5594,7 @@
       </c>
       <c r="D138" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(11,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(11,11,3);</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -5610,7 +5609,7 @@
       </c>
       <c r="D139" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(11,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(11,14,3);</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -5625,7 +5624,7 @@
       </c>
       <c r="D140" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(11,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(11,11,3);</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5640,7 +5639,7 @@
       </c>
       <c r="D141" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(12,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(12,11,3);</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -5655,7 +5654,7 @@
       </c>
       <c r="D142" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(11,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(11,14,3);</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -5670,7 +5669,7 @@
       </c>
       <c r="D143" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(11,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(11,11,3);</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -5685,7 +5684,7 @@
       </c>
       <c r="D144" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(12,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(12,14,3);</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -5700,7 +5699,7 @@
       </c>
       <c r="D145" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(12,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(12,11,3);</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5715,7 +5714,7 @@
       </c>
       <c r="D146" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(11,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(11,12,3);</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -5730,7 +5729,7 @@
       </c>
       <c r="D147" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(11,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(11,11,3);</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -5745,7 +5744,7 @@
       </c>
       <c r="D148" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(12,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(12,12,3);</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -5760,7 +5759,7 @@
       </c>
       <c r="D149" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(12,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(12,12,3);</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5775,7 +5774,7 @@
       </c>
       <c r="D150" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(11,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(11,14,3);</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -5790,7 +5789,7 @@
       </c>
       <c r="D151" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(11,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(11,11,3);</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -5805,7 +5804,7 @@
       </c>
       <c r="D152" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(12,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(12,11,3);</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -5820,7 +5819,7 @@
       </c>
       <c r="D153" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(12,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(12,12,3);</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5835,7 +5834,7 @@
       </c>
       <c r="D154" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(12,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(12,11,3);</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -5850,7 +5849,7 @@
       </c>
       <c r="D155" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(11,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(11,13,3);</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -5865,7 +5864,7 @@
       </c>
       <c r="D156" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(11,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(11,11,3);</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5880,7 +5879,7 @@
       </c>
       <c r="D157" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(11,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(11,11,3);</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -5895,7 +5894,7 @@
       </c>
       <c r="D158" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(13,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(13,13,3);</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -5910,7 +5909,7 @@
       </c>
       <c r="D159" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(14,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(14,12,3);</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -5925,7 +5924,7 @@
       </c>
       <c r="D160" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(13,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(13,13,3);</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -5940,7 +5939,7 @@
       </c>
       <c r="D161" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(14,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(14,11,3);</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -5955,7 +5954,7 @@
       </c>
       <c r="D162" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(14,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(14,14,3);</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -5970,7 +5969,7 @@
       </c>
       <c r="D163" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(13,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(13,11,3);</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -5985,7 +5984,7 @@
       </c>
       <c r="D164" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(13,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(13,12,3);</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -6000,7 +5999,7 @@
       </c>
       <c r="D165" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(13,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(13,12,3);</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -6015,7 +6014,7 @@
       </c>
       <c r="D166" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(13,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(13,14,3);</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -6030,7 +6029,7 @@
       </c>
       <c r="D167" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(14,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(14,14,3);</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -6045,7 +6044,7 @@
       </c>
       <c r="D168" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(13,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(13,13,3);</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -6060,7 +6059,7 @@
       </c>
       <c r="D169" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(13,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(13,13,3);</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -6075,7 +6074,7 @@
       </c>
       <c r="D170" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(14,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(14,11,3);</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -6090,7 +6089,7 @@
       </c>
       <c r="D171" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(13,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(13,13,3);</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -6105,7 +6104,7 @@
       </c>
       <c r="D172" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(14,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(14,13,3);</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -6120,7 +6119,7 @@
       </c>
       <c r="D173" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(14,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(14,13,3);</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -6135,7 +6134,7 @@
       </c>
       <c r="D174" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(13,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(13,12,3);</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -6150,7 +6149,7 @@
       </c>
       <c r="D175" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(14,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(14,13,3);</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -6165,7 +6164,7 @@
       </c>
       <c r="D176" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(13,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(13,14,3);</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -6180,7 +6179,7 @@
       </c>
       <c r="D177" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(13,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(13,12,3);</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -6195,7 +6194,7 @@
       </c>
       <c r="D178" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(14,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(14,14,3);</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -6210,7 +6209,7 @@
       </c>
       <c r="D179" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(13,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(13,13,3);</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -6225,7 +6224,7 @@
       </c>
       <c r="D180" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(14,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(14,12,3);</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -6240,7 +6239,7 @@
       </c>
       <c r="D181" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(13,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(13,14,3);</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -6255,7 +6254,7 @@
       </c>
       <c r="D182" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(13,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(13,11,3);</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -6270,7 +6269,7 @@
       </c>
       <c r="D183" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(14,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(14,11,3);</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -6285,7 +6284,7 @@
       </c>
       <c r="D184" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(16,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(16,11,3);</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -6300,7 +6299,7 @@
       </c>
       <c r="D185" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(16,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(16,13,3);</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -6315,7 +6314,7 @@
       </c>
       <c r="D186" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(16,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(16,13,3);</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -6330,7 +6329,7 @@
       </c>
       <c r="D187" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(16,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(16,14,3);</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -6345,7 +6344,7 @@
       </c>
       <c r="D188" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(16,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(16,11,3);</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -6360,7 +6359,7 @@
       </c>
       <c r="D189" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(15,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(15,11,3);</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -6375,7 +6374,7 @@
       </c>
       <c r="D190" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(15,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(15,11,3);</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -6390,7 +6389,7 @@
       </c>
       <c r="D191" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(15,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(15,11,3);</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -6405,7 +6404,7 @@
       </c>
       <c r="D192" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(16,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(16,14,3);</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -6420,7 +6419,7 @@
       </c>
       <c r="D193" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(16,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(16,12,3);</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -6435,7 +6434,7 @@
       </c>
       <c r="D194" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO VOTES VALUES(16,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(16,12,3);</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -6449,8 +6448,8 @@
         <v>5</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" ref="D195:D235" si="3">CONCATENATE("INSERT INTO VOTES VALUES(",A195, ",", B195, ",", C195, ");")</f>
-        <v>INSERT INTO VOTES VALUES(15,11,3);</v>
+        <f t="shared" ref="D195:D235" si="3">CONCATENATE("INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(",A195, ",", B195, ",", C195, ");")</f>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(15,11,3);</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -6465,7 +6464,7 @@
       </c>
       <c r="D196" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(16,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(16,14,3);</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -6480,7 +6479,7 @@
       </c>
       <c r="D197" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(16,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(16,12,3);</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -6495,7 +6494,7 @@
       </c>
       <c r="D198" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(15,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(15,13,3);</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -6510,7 +6509,7 @@
       </c>
       <c r="D199" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(16,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(16,14,3);</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -6525,7 +6524,7 @@
       </c>
       <c r="D200" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(15,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(15,14,3);</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -6540,7 +6539,7 @@
       </c>
       <c r="D201" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(15,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(15,11,3);</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -6555,7 +6554,7 @@
       </c>
       <c r="D202" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(16,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(16,11,3);</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -6570,7 +6569,7 @@
       </c>
       <c r="D203" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(16,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(16,12,3);</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -6585,7 +6584,7 @@
       </c>
       <c r="D204" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(15,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(15,14,3);</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -6600,7 +6599,7 @@
       </c>
       <c r="D205" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(16,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(16,11,3);</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -6615,7 +6614,7 @@
       </c>
       <c r="D206" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(15,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(15,13,3);</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -6630,7 +6629,7 @@
       </c>
       <c r="D207" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(16,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(16,11,3);</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -6645,7 +6644,7 @@
       </c>
       <c r="D208" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(15,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(15,14,3);</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -6660,7 +6659,7 @@
       </c>
       <c r="D209" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(15,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(15,11,3);</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -6675,7 +6674,7 @@
       </c>
       <c r="D210" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(18,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(18,13,3);</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -6690,7 +6689,7 @@
       </c>
       <c r="D211" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(18,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(18,12,3);</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -6705,7 +6704,7 @@
       </c>
       <c r="D212" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(18,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(18,12,3);</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -6720,7 +6719,7 @@
       </c>
       <c r="D213" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(17,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(17,12,3);</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -6735,7 +6734,7 @@
       </c>
       <c r="D214" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(17,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(17,11,3);</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -6750,7 +6749,7 @@
       </c>
       <c r="D215" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(17,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(17,13,3);</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -6765,7 +6764,7 @@
       </c>
       <c r="D216" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(17,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(17,14,3);</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -6780,7 +6779,7 @@
       </c>
       <c r="D217" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(18,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(18,14,3);</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -6795,7 +6794,7 @@
       </c>
       <c r="D218" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(17,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(17,14,3);</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -6810,7 +6809,7 @@
       </c>
       <c r="D219" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(17,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(17,11,3);</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -6825,7 +6824,7 @@
       </c>
       <c r="D220" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(18,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(18,13,3);</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -6840,7 +6839,7 @@
       </c>
       <c r="D221" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(18,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(18,14,3);</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -6855,7 +6854,7 @@
       </c>
       <c r="D222" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(18,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(18,13,3);</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -6870,7 +6869,7 @@
       </c>
       <c r="D223" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(18,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(18,13,3);</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -6885,7 +6884,7 @@
       </c>
       <c r="D224" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(18,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(18,12,3);</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -6900,7 +6899,7 @@
       </c>
       <c r="D225" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(17,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(17,14,3);</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -6915,7 +6914,7 @@
       </c>
       <c r="D226" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(17,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(17,13,3);</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -6930,7 +6929,7 @@
       </c>
       <c r="D227" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(17,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(17,12,3);</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
@@ -6945,7 +6944,7 @@
       </c>
       <c r="D228" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(17,13,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(17,13,3);</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -6960,7 +6959,7 @@
       </c>
       <c r="D229" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(18,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(18,14,3);</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -6975,7 +6974,7 @@
       </c>
       <c r="D230" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(17,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(17,14,3);</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -6990,7 +6989,7 @@
       </c>
       <c r="D231" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(17,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(17,14,3);</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -7005,7 +7004,7 @@
       </c>
       <c r="D232" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(18,11,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(18,11,3);</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -7020,7 +7019,7 @@
       </c>
       <c r="D233" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(17,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(17,12,3);</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -7035,7 +7034,7 @@
       </c>
       <c r="D234" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(18,12,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(18,12,3);</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -7050,7 +7049,7 @@
       </c>
       <c r="D235" t="str">
         <f t="shared" si="3"/>
-        <v>INSERT INTO VOTES VALUES(18,14,3);</v>
+        <v>INSERT INTO VOTES(candidate_id, poll_id, election_id) VALUES(18,14,3);</v>
       </c>
     </row>
   </sheetData>

--- a/election/src/main/resources/database/election-inserts.xlsx
+++ b/election/src/main/resources/database/election-inserts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GraduateStudies\db_systems\final-project-repo\election\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claremorris/Documents/databaseproject/election/src/main/resources/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F148003-7742-4A83-AA44-570E77B012C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C080F6-5F34-2E4E-8EE5-DCB9DBE35EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{CF11789D-A1C1-4EA3-82EE-040757E1459A}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{CF11789D-A1C1-4EA3-82EE-040757E1459A}"/>
   </bookViews>
   <sheets>
     <sheet name="ELECTION" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="234">
   <si>
     <t>election_id</t>
   </si>
@@ -742,6 +742,9 @@
   </si>
   <si>
     <t>'Parks and Rec Director'</t>
+  </si>
+  <si>
+    <t>vote_id</t>
   </si>
 </sst>
 </file>
@@ -783,10 +786,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1119,14 +1121,14 @@
       <selection activeCell="C4" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="89.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="89.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1146,7 +1148,7 @@
         <v>INSERT INTO ELECTION VALUES(1,TO_DATE('04132023','mmddyyyy'));</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1158,7 +1160,7 @@
         <v>INSERT INTO ELECTION VALUES(2,TO_DATE('04142022','mmddyyyy'));</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1184,17 +1186,17 @@
       <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="104" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1217,7 +1219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1244,7 +1246,7 @@
         <v>INSERT INTO POLLING_LOCATION VALUES(11,'Newberry Commons','123 Newberry Street','Lock Village','TA',89455,40);</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1271,7 +1273,7 @@
         <v>INSERT INTO POLLING_LOCATION VALUES(12,'Frankenburg High','5067 Main Street','Ark Cove','TA',89658,200);</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1298,7 +1300,7 @@
         <v>INSERT INTO POLLING_LOCATION VALUES(13,'Town Hall','1 Broad Street','Azalea Village','TA',78945,250);</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>77</v>
       </c>
@@ -1339,18 +1341,18 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="116.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="116.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1382,7 +1384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
@@ -1418,7 +1420,7 @@
         <v>INSERT INTO VOTER VALUES('112233455','Jane','M','Doe',TO_DATE('09072000','mmddyyyy'),'123 Minglewood Road','Tarkville','TA',89455,11);</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>113</v>
       </c>
@@ -1454,7 +1456,7 @@
         <v>INSERT INTO VOTER VALUES('987654321','Harry','J','Potter',TO_DATE('07311980','mmddyyyy'),'4 Privet Drive','Surrey','TA',89658,12);</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>210</v>
       </c>
@@ -1490,7 +1492,7 @@
         <v>INSERT INTO VOTER VALUES('000000001','Katniss','K','Everdeen',TO_DATE('04111999','mmddyyyy'),'14 Dirt Avenue','District 12','TA',78945,13);</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>114</v>
       </c>
@@ -1526,7 +1528,7 @@
         <v>INSERT INTO VOTER VALUES('404040404','Peeta','P','Mellark',TO_DATE('07231999','mmddyyyy'),'16 Dirt Avenue','District 12','TA',89658,13);</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>115</v>
       </c>
@@ -1562,7 +1564,7 @@
         <v>INSERT INTO VOTER VALUES('666677777','Ronald','B','Weasley',TO_DATE('01031980','mmddyyyy'),'1 Winding Way','Nowhere','TA',89455,12);</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>116</v>
       </c>
@@ -1598,7 +1600,7 @@
         <v>INSERT INTO VOTER VALUES('000111000','Hermoine','G','Granger',TO_DATE('04201980','mmddyyyy'),'46 Canterbury Ave','London','TA',78945,12);</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>117</v>
       </c>
@@ -1634,7 +1636,7 @@
         <v>INSERT INTO VOTER VALUES('024686420','Billy','B','Bob',TO_DATE('08272001','mmddyyyy'),'1234 Road Street','Red Bank','TA',11203,14);</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>118</v>
       </c>
@@ -1670,20 +1672,20 @@
         <v>INSERT INTO VOTER VALUES('123454321','Cotton','E','Joe',TO_DATE('01011997','mmddyyyy'),'Mango Place','Mango Falls','TA',11203,11);</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1706,20 +1708,20 @@
         <v>INSERT INTO VOTER VALUES('315485998','Trevar','H','McEvon',TO_DATE('03/17/1936','mm/dd/yyyy'),'Maple Drive','San Jose','TA',11203,14);</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>213</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1742,20 +1744,20 @@
         <v>INSERT INTO VOTER VALUES('137459975','Enrico','L','Covely',TO_DATE('5/20/1934','mm/dd/yyyy'),'Maple Drive','Dallas','TA',89658,12);</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>214</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1778,20 +1780,20 @@
         <v>INSERT INTO VOTER VALUES('791399884','Letty','I','Beardon',TO_DATE('5/14/1970','mm/dd/yyyy'),'Elm Street','New York','TA',78945,13);</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>215</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1814,20 +1816,20 @@
         <v>INSERT INTO VOTER VALUES('302034739','Alvan','P','Tower',TO_DATE('9/13/1973','mm/dd/yyyy'),'Main Street','Columbus','TA',89455,11);</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>216</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1850,20 +1852,20 @@
         <v>INSERT INTO VOTER VALUES('244703479','Lemuel','W','Candy',TO_DATE('7/29/1943','mm/dd/yyyy'),'Main Street','Denver','TA',78945,12);</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>217</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1886,20 +1888,20 @@
         <v>INSERT INTO VOTER VALUES('411491214','Flory','W','Sparshutt',TO_DATE('11/22/1938','mm/dd/yyyy'),'Cedar Lane','Seattle','TA',89658,13);</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>218</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1922,20 +1924,20 @@
         <v>INSERT INTO VOTER VALUES('689231940','Reagan','E','Uttley',TO_DATE('7/17/1990','mm/dd/yyyy'),'Oak Avenue','Indianapolis','TA',78945,12);</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>221</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1958,20 +1960,20 @@
         <v>INSERT INTO VOTER VALUES('853650285','Charlene','I','Starkey',TO_DATE('12/14/1969','mm/dd/yyyy'),'Main Street','Fort Worth','TA',89455,11);</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>219</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1994,20 +1996,20 @@
         <v>INSERT INTO VOTER VALUES('472741200','Chester','H','Peckett',TO_DATE('6/30/1986','mm/dd/yyyy'),'Cedar Lane','San Diego','TA',89658,13);</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>220</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -2030,7 +2032,7 @@
         <v>INSERT INTO VOTER VALUES('217660432','Charis','T','Simenel',TO_DATE('4/20/1988','mm/dd/yyyy'),'Main Street','San Diego','TA',89658,13);</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>172</v>
       </c>
@@ -2043,7 +2045,7 @@
       <c r="D20" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>222</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -2066,7 +2068,7 @@
         <v>INSERT INTO VOTER VALUES('580735017','Hayley','U','Hadeke',TO_DATE('9/22/1957','mm/dd/yyyy'),'Oak Avenue','Denver','TA',78945,13);</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>173</v>
       </c>
@@ -2079,7 +2081,7 @@
       <c r="D21" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>223</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -2102,7 +2104,7 @@
         <v>INSERT INTO VOTER VALUES('355345698','Celestyn','L','Twist',TO_DATE('3/23/1961','mm/dd/yyyy'),'Main Street','San Francisco','TA',89455,11);</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>174</v>
       </c>
@@ -2115,7 +2117,7 @@
       <c r="D22" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>224</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -2138,7 +2140,7 @@
         <v>INSERT INTO VOTER VALUES('888188570','Cinderella','L','Mallan',TO_DATE('6/4/1953','mm/dd/yyyy'),'Oak Avenue','Charlotte','TA',89455,14);</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>175</v>
       </c>
@@ -2151,7 +2153,7 @@
       <c r="D23" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>225</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -2174,7 +2176,7 @@
         <v>INSERT INTO VOTER VALUES('588398473','Shaylah','S','Claque',TO_DATE('7/14/1953','mm/dd/yyyy'),'Maple Drive','Indianapolis','TA',11203,11);</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>176</v>
       </c>
@@ -2187,7 +2189,7 @@
       <c r="D24" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>226</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -2210,7 +2212,7 @@
         <v>INSERT INTO VOTER VALUES('303623075','Ilaire','U','Shreenan',TO_DATE('11/3/1988','mm/dd/yyyy'),'Cedar Lane','Indianapolis','TA',78945,13);</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>177</v>
       </c>
@@ -2223,7 +2225,7 @@
       <c r="D25" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>227</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2246,7 +2248,7 @@
         <v>INSERT INTO VOTER VALUES('542353643','Junie','O','Gaule',TO_DATE('7/26/1936','mm/dd/yyyy'),'Main Street','Jacksonville','TA',11203,12);</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>178</v>
       </c>
@@ -2259,7 +2261,7 @@
       <c r="D26" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F26" s="1" t="s">
@@ -2282,7 +2284,7 @@
         <v>INSERT INTO VOTER VALUES('662514504','Finley','J','Giacometti',TO_DATE('11/2/1952','mm/dd/yyyy'),'Main Street','New York','TA',11203,11);</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>179</v>
       </c>
@@ -2295,7 +2297,7 @@
       <c r="D27" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -2332,13 +2334,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="67.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -2346,7 +2348,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
@@ -2358,7 +2360,7 @@
         <v>INSERT INTO OFFICE VALUES(90,'City Manager');</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
@@ -2366,11 +2368,11 @@
         <v>94</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C12" si="0">CONCATENATE( "INSERT INTO OFFICE VALUES(", A3, ",", B3, ");")</f>
+        <f t="shared" ref="C3:C10" si="0">CONCATENATE( "INSERT INTO OFFICE VALUES(", A3, ",", B3, ");")</f>
         <v>INSERT INTO OFFICE VALUES(91,'City Attorney');</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>95</v>
       </c>
@@ -2382,7 +2384,7 @@
         <v>INSERT INTO OFFICE VALUES(92,'Finance Director');</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>98</v>
       </c>
@@ -2394,7 +2396,7 @@
         <v>INSERT INTO OFFICE VALUES(93,'Police Chief');</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>99</v>
       </c>
@@ -2406,7 +2408,7 @@
         <v>INSERT INTO OFFICE VALUES(94,'Fire Chief');</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -2418,7 +2420,7 @@
         <v>INSERT INTO OFFICE VALUES(95,'Public Works Director');</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>103</v>
       </c>
@@ -2430,7 +2432,7 @@
         <v>INSERT INTO OFFICE VALUES(96,'Parks and Rec Director');</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>104</v>
       </c>
@@ -2442,7 +2444,7 @@
         <v>INSERT INTO OFFICE VALUES(97,'Mayor');</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -2468,16 +2470,16 @@
       <selection activeCell="F19" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="90.5703125" customWidth="1"/>
+    <col min="6" max="6" width="90.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2494,7 +2496,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2515,7 +2517,7 @@
         <v>INSERT INTO PREVIOUSLY_ELECTED VALUES(2,2,'112233455',90,'Y');</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2536,7 +2538,7 @@
         <v>INSERT INTO PREVIOUSLY_ELECTED VALUES(2,1,'137459975',91,'Y');</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2557,7 +2559,7 @@
         <v>INSERT INTO PREVIOUSLY_ELECTED VALUES(2,2,'000000001',92,'Y');</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2578,7 +2580,7 @@
         <v>INSERT INTO PREVIOUSLY_ELECTED VALUES(2,2,'404040404',93,'Y');</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2599,7 +2601,7 @@
         <v>INSERT INTO PREVIOUSLY_ELECTED VALUES(2,2,'666677777',94,'Y');</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2620,7 +2622,7 @@
         <v>INSERT INTO PREVIOUSLY_ELECTED VALUES(2,1,'791399884',95,'Y');</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2641,7 +2643,7 @@
         <v>INSERT INTO PREVIOUSLY_ELECTED VALUES(2,1,'302034739',96,'Y');</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -2662,7 +2664,7 @@
         <v>INSERT INTO PREVIOUSLY_ELECTED VALUES(2,1,'244703479',97,'Y');</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2683,7 +2685,7 @@
         <v>INSERT INTO PREVIOUSLY_ELECTED VALUES(2,1,'411491214',98,'Y');</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2704,7 +2706,7 @@
         <v>INSERT INTO PREVIOUSLY_ELECTED VALUES(1,1,'112233455',90,'N');</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -2725,7 +2727,7 @@
         <v>INSERT INTO PREVIOUSLY_ELECTED VALUES(1,1,'987654321',91,'N');</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2746,7 +2748,7 @@
         <v>INSERT INTO PREVIOUSLY_ELECTED VALUES(1,1,'000000001',92,'N');</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2767,7 +2769,7 @@
         <v>INSERT INTO PREVIOUSLY_ELECTED VALUES(1,1,'404040404',93,'N');</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -2788,7 +2790,7 @@
         <v>INSERT INTO PREVIOUSLY_ELECTED VALUES(1,1,'666677777',94,'N');</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -2809,7 +2811,7 @@
         <v>INSERT INTO PREVIOUSLY_ELECTED VALUES(1,1,'000111000',95,'N');</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -2830,7 +2832,7 @@
         <v>INSERT INTO PREVIOUSLY_ELECTED VALUES(1,1,'024686420',96,'N');</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -2851,7 +2853,7 @@
         <v>INSERT INTO PREVIOUSLY_ELECTED VALUES(1,1,'123454321',97,'N');</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -2887,14 +2889,14 @@
       <selection activeCell="D17" sqref="D2:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="78.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="78.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2905,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>172</v>
       </c>
@@ -2920,7 +2922,7 @@
         <v>INSERT INTO POLL_WORKERS VALUES('580735017',11,1);</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>173</v>
       </c>
@@ -2935,7 +2937,7 @@
         <v>INSERT INTO POLL_WORKERS VALUES('355345698',12,1);</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>174</v>
       </c>
@@ -2950,7 +2952,7 @@
         <v>INSERT INTO POLL_WORKERS VALUES('888188570',13,1);</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -2965,7 +2967,7 @@
         <v>INSERT INTO POLL_WORKERS VALUES('588398473',14,1);</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
@@ -2980,7 +2982,7 @@
         <v>INSERT INTO POLL_WORKERS VALUES('303623075',11,1);</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>177</v>
       </c>
@@ -2995,7 +2997,7 @@
         <v>INSERT INTO POLL_WORKERS VALUES('542353643',12,1);</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>178</v>
       </c>
@@ -3010,7 +3012,7 @@
         <v>INSERT INTO POLL_WORKERS VALUES('662514504',13,1);</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>179</v>
       </c>
@@ -3025,7 +3027,7 @@
         <v>INSERT INTO POLL_WORKERS VALUES('917815847',14,1);</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>172</v>
       </c>
@@ -3040,7 +3042,7 @@
         <v>INSERT INTO POLL_WORKERS VALUES('580735017',14,2);</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>173</v>
       </c>
@@ -3055,7 +3057,7 @@
         <v>INSERT INTO POLL_WORKERS VALUES('355345698',14,2);</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>174</v>
       </c>
@@ -3070,7 +3072,7 @@
         <v>INSERT INTO POLL_WORKERS VALUES('888188570',13,2);</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>175</v>
       </c>
@@ -3085,7 +3087,7 @@
         <v>INSERT INTO POLL_WORKERS VALUES('588398473',13,2);</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>176</v>
       </c>
@@ -3100,7 +3102,7 @@
         <v>INSERT INTO POLL_WORKERS VALUES('303623075',12,2);</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>177</v>
       </c>
@@ -3115,7 +3117,7 @@
         <v>INSERT INTO POLL_WORKERS VALUES('542353643',12,2);</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>178</v>
       </c>
@@ -3130,7 +3132,7 @@
         <v>INSERT INTO POLL_WORKERS VALUES('662514504',11,2);</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>179</v>
       </c>
@@ -3160,15 +3162,15 @@
       <selection activeCell="E19" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="91.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="91.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -3182,7 +3184,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3200,7 +3202,7 @@
         <v>INSERT INTO CANDIDATES VALUES(1,3,'580735017',90);</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -3218,7 +3220,7 @@
         <v>INSERT INTO CANDIDATES VALUES(2,3,'303623075',90);</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3236,7 +3238,7 @@
         <v>INSERT INTO CANDIDATES VALUES(3,3,'137459975',91);</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>167</v>
       </c>
@@ -3254,7 +3256,7 @@
         <v>INSERT INTO CANDIDATES VALUES(4,3,'112233455',91);</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>168</v>
       </c>
@@ -3272,7 +3274,7 @@
         <v>INSERT INTO CANDIDATES VALUES(5,3,'917815847',92);</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>169</v>
       </c>
@@ -3290,7 +3292,7 @@
         <v>INSERT INTO CANDIDATES VALUES(6,3,'123454321',92);</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>170</v>
       </c>
@@ -3308,7 +3310,7 @@
         <v>INSERT INTO CANDIDATES VALUES(7,3,'404040404',93);</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>171</v>
       </c>
@@ -3326,7 +3328,7 @@
         <v>INSERT INTO CANDIDATES VALUES(8,3,'853650285',93);</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>203</v>
       </c>
@@ -3344,7 +3346,7 @@
         <v>INSERT INTO CANDIDATES VALUES(9,3,'666677777',94);</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>205</v>
       </c>
@@ -3362,7 +3364,7 @@
         <v>INSERT INTO CANDIDATES VALUES(10,3,'000000001',94);</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -3380,7 +3382,7 @@
         <v>INSERT INTO CANDIDATES VALUES(11,3,'791399884',95);</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3398,7 +3400,7 @@
         <v>INSERT INTO CANDIDATES VALUES(12,3,'000111000',95);</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -3416,7 +3418,7 @@
         <v>INSERT INTO CANDIDATES VALUES(13,3,'315485998',96);</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
@@ -3434,7 +3436,7 @@
         <v>INSERT INTO CANDIDATES VALUES(14,3,'588398473',96);</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>206</v>
       </c>
@@ -3452,7 +3454,7 @@
         <v>INSERT INTO CANDIDATES VALUES(15,3,'987654321',97);</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>207</v>
       </c>
@@ -3470,7 +3472,7 @@
         <v>INSERT INTO CANDIDATES VALUES(16,3,'302034739',97);</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>208</v>
       </c>
@@ -3488,7 +3490,7 @@
         <v>INSERT INTO CANDIDATES VALUES(17,3,'024686420',98);</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>209</v>
       </c>
@@ -3518,21 +3520,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F1C548-88B6-4D52-821D-479EDF6DFA13}">
-  <dimension ref="A1:D235"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="O208" sqref="O208"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="72.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -3542,8 +3545,11 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3553,12 +3559,15 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
         <f>CONCATENATE("INSERT INTO VOTES VALUES(",A2, ",", B2, ",", C2, ");")</f>
         <v>INSERT INTO VOTES VALUES(1,12,3);</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3568,12 +3577,15 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="0">CONCATENATE("INSERT INTO VOTES VALUES(",A3, ",", B3, ",", C3, ");")</f>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A3, ",", B3, ",", C3, ");")</f>
         <v>INSERT INTO VOTES VALUES(2,11,3);</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3583,12 +3595,15 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A4, ",", B4, ",", C4, ");")</f>
         <v>INSERT INTO VOTES VALUES(2,12,3);</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3598,12 +3613,15 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A5, ",", B5, ",", C5, ");")</f>
         <v>INSERT INTO VOTES VALUES(1,13,3);</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3613,12 +3631,16 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
+      <c r="D6">
+        <f>D5+1</f>
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A6, ",", B6, ",", C6, ");")</f>
         <v>INSERT INTO VOTES VALUES(2,14,3);</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3628,12 +3650,16 @@
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
+      <c r="D7">
+        <f t="shared" ref="D7:D70" si="0">D6+1</f>
+        <v>6</v>
+      </c>
+      <c r="E7" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A7, ",", B7, ",", C7, ");")</f>
         <v>INSERT INTO VOTES VALUES(2,11,3);</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3643,12 +3669,16 @@
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E8" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A8, ",", B8, ",", C8, ");")</f>
         <v>INSERT INTO VOTES VALUES(2,14,3);</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3658,12 +3688,16 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E9" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A9, ",", B9, ",", C9, ");")</f>
         <v>INSERT INTO VOTES VALUES(1,13,3);</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3673,12 +3707,16 @@
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E10" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A10, ",", B10, ",", C10, ");")</f>
         <v>INSERT INTO VOTES VALUES(2,14,3);</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3688,12 +3726,16 @@
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E11" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A11, ",", B11, ",", C11, ");")</f>
         <v>INSERT INTO VOTES VALUES(1,11,3);</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3703,12 +3745,16 @@
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E12" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A12, ",", B12, ",", C12, ");")</f>
         <v>INSERT INTO VOTES VALUES(2,14,3);</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3718,12 +3764,16 @@
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E13" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A13, ",", B13, ",", C13, ");")</f>
         <v>INSERT INTO VOTES VALUES(2,13,3);</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -3733,12 +3783,16 @@
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E14" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A14, ",", B14, ",", C14, ");")</f>
         <v>INSERT INTO VOTES VALUES(2,12,3);</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3748,12 +3802,16 @@
       <c r="C15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E15" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A15, ",", B15, ",", C15, ");")</f>
         <v>INSERT INTO VOTES VALUES(2,11,3);</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -3763,12 +3821,16 @@
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E16" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A16, ",", B16, ",", C16, ");")</f>
         <v>INSERT INTO VOTES VALUES(2,13,3);</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3778,12 +3840,16 @@
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E17" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A17, ",", B17, ",", C17, ");")</f>
         <v>INSERT INTO VOTES VALUES(1,11,3);</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3793,12 +3859,16 @@
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" si="0"/>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E18" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A18, ",", B18, ",", C18, ");")</f>
         <v>INSERT INTO VOTES VALUES(1,12,3);</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3808,12 +3878,16 @@
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E19" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A19, ",", B19, ",", C19, ");")</f>
         <v>INSERT INTO VOTES VALUES(2,13,3);</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3823,12 +3897,16 @@
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E20" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A20, ",", B20, ",", C20, ");")</f>
         <v>INSERT INTO VOTES VALUES(2,13,3);</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3838,12 +3916,16 @@
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E21" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A21, ",", B21, ",", C21, ");")</f>
         <v>INSERT INTO VOTES VALUES(2,13,3);</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3853,12 +3935,16 @@
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E22" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A22, ",", B22, ",", C22, ");")</f>
         <v>INSERT INTO VOTES VALUES(2,11,3);</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3868,12 +3954,16 @@
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E23" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A23, ",", B23, ",", C23, ");")</f>
         <v>INSERT INTO VOTES VALUES(1,12,3);</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3883,12 +3973,16 @@
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E24" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A24, ",", B24, ",", C24, ");")</f>
         <v>INSERT INTO VOTES VALUES(2,14,3);</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3898,12 +3992,16 @@
       <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E25" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A25, ",", B25, ",", C25, ");")</f>
         <v>INSERT INTO VOTES VALUES(1,14,3);</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3913,12 +4011,16 @@
       <c r="C26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E26" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A26, ",", B26, ",", C26, ");")</f>
         <v>INSERT INTO VOTES VALUES(2,13,3);</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3928,12 +4030,16 @@
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E27" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A27, ",", B27, ",", C27, ");")</f>
         <v>INSERT INTO VOTES VALUES(1,14,3);</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3943,12 +4049,16 @@
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E28" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A28, ",", B28, ",", C28, ");")</f>
         <v>INSERT INTO VOTES VALUES(3,13,3);</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -3958,12 +4068,16 @@
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E29" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A29, ",", B29, ",", C29, ");")</f>
         <v>INSERT INTO VOTES VALUES(3,12,3);</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -3973,12 +4087,16 @@
       <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E30" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A30, ",", B30, ",", C30, ");")</f>
         <v>INSERT INTO VOTES VALUES(4,14,3);</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3988,12 +4106,16 @@
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E31" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A31, ",", B31, ",", C31, ");")</f>
         <v>INSERT INTO VOTES VALUES(3,14,3);</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -4003,12 +4125,16 @@
       <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E32" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A32, ",", B32, ",", C32, ");")</f>
         <v>INSERT INTO VOTES VALUES(4,13,3);</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4018,12 +4144,16 @@
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E33" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A33, ",", B33, ",", C33, ");")</f>
         <v>INSERT INTO VOTES VALUES(4,12,3);</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -4033,12 +4163,16 @@
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E34" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A34, ",", B34, ",", C34, ");")</f>
         <v>INSERT INTO VOTES VALUES(4,14,3);</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -4048,12 +4182,16 @@
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E35" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A35, ",", B35, ",", C35, ");")</f>
         <v>INSERT INTO VOTES VALUES(3,12,3);</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -4063,12 +4201,16 @@
       <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E36" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A36, ",", B36, ",", C36, ");")</f>
         <v>INSERT INTO VOTES VALUES(3,14,3);</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -4078,12 +4220,16 @@
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E37" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A37, ",", B37, ",", C37, ");")</f>
         <v>INSERT INTO VOTES VALUES(4,14,3);</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4</v>
       </c>
@@ -4093,12 +4239,16 @@
       <c r="C38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D38" t="str">
-        <f t="shared" si="0"/>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E38" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A38, ",", B38, ",", C38, ");")</f>
         <v>INSERT INTO VOTES VALUES(4,11,3);</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -4108,12 +4258,16 @@
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D39" t="str">
-        <f t="shared" si="0"/>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E39" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A39, ",", B39, ",", C39, ");")</f>
         <v>INSERT INTO VOTES VALUES(3,11,3);</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4</v>
       </c>
@@ -4123,12 +4277,16 @@
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D40" t="str">
-        <f t="shared" si="0"/>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E40" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A40, ",", B40, ",", C40, ");")</f>
         <v>INSERT INTO VOTES VALUES(4,11,3);</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -4138,12 +4296,16 @@
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D41" t="str">
-        <f t="shared" si="0"/>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E41" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A41, ",", B41, ",", C41, ");")</f>
         <v>INSERT INTO VOTES VALUES(3,11,3);</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4</v>
       </c>
@@ -4153,12 +4315,16 @@
       <c r="C42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D42" t="str">
-        <f t="shared" si="0"/>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E42" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A42, ",", B42, ",", C42, ");")</f>
         <v>INSERT INTO VOTES VALUES(4,12,3);</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4</v>
       </c>
@@ -4168,12 +4334,16 @@
       <c r="C43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D43" t="str">
-        <f t="shared" si="0"/>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E43" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A43, ",", B43, ",", C43, ");")</f>
         <v>INSERT INTO VOTES VALUES(4,11,3);</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4</v>
       </c>
@@ -4183,12 +4353,16 @@
       <c r="C44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E44" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A44, ",", B44, ",", C44, ");")</f>
         <v>INSERT INTO VOTES VALUES(4,11,3);</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -4198,12 +4372,16 @@
       <c r="C45" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E45" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A45, ",", B45, ",", C45, ");")</f>
         <v>INSERT INTO VOTES VALUES(4,13,3);</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4</v>
       </c>
@@ -4213,12 +4391,16 @@
       <c r="C46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E46" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A46, ",", B46, ",", C46, ");")</f>
         <v>INSERT INTO VOTES VALUES(4,13,3);</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4</v>
       </c>
@@ -4228,12 +4410,16 @@
       <c r="C47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E47" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A47, ",", B47, ",", C47, ");")</f>
         <v>INSERT INTO VOTES VALUES(4,14,3);</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -4243,12 +4429,16 @@
       <c r="C48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D48" t="str">
-        <f t="shared" si="0"/>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E48" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A48, ",", B48, ",", C48, ");")</f>
         <v>INSERT INTO VOTES VALUES(3,14,3);</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -4258,12 +4448,16 @@
       <c r="C49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D49" t="str">
-        <f t="shared" si="0"/>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E49" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A49, ",", B49, ",", C49, ");")</f>
         <v>INSERT INTO VOTES VALUES(3,12,3);</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -4273,12 +4467,16 @@
       <c r="C50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D50" t="str">
-        <f t="shared" si="0"/>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E50" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A50, ",", B50, ",", C50, ");")</f>
         <v>INSERT INTO VOTES VALUES(3,14,3);</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4</v>
       </c>
@@ -4288,12 +4486,16 @@
       <c r="C51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D51" t="str">
-        <f t="shared" si="0"/>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E51" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A51, ",", B51, ",", C51, ");")</f>
         <v>INSERT INTO VOTES VALUES(4,13,3);</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4</v>
       </c>
@@ -4303,12 +4505,16 @@
       <c r="C52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D52" t="str">
-        <f t="shared" si="0"/>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E52" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A52, ",", B52, ",", C52, ");")</f>
         <v>INSERT INTO VOTES VALUES(4,12,3);</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -4318,12 +4524,16 @@
       <c r="C53" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D53" t="str">
-        <f t="shared" si="0"/>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E53" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A53, ",", B53, ",", C53, ");")</f>
         <v>INSERT INTO VOTES VALUES(3,14,3);</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5</v>
       </c>
@@ -4333,12 +4543,16 @@
       <c r="C54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D54" t="str">
-        <f t="shared" si="0"/>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E54" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A54, ",", B54, ",", C54, ");")</f>
         <v>INSERT INTO VOTES VALUES(5,13,3);</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>6</v>
       </c>
@@ -4348,12 +4562,16 @@
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D55" t="str">
-        <f t="shared" si="0"/>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E55" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A55, ",", B55, ",", C55, ");")</f>
         <v>INSERT INTO VOTES VALUES(6,14,3);</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6</v>
       </c>
@@ -4363,12 +4581,16 @@
       <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D56" t="str">
-        <f t="shared" si="0"/>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E56" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A56, ",", B56, ",", C56, ");")</f>
         <v>INSERT INTO VOTES VALUES(6,14,3);</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5</v>
       </c>
@@ -4378,12 +4600,16 @@
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D57" t="str">
-        <f t="shared" si="0"/>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E57" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A57, ",", B57, ",", C57, ");")</f>
         <v>INSERT INTO VOTES VALUES(5,11,3);</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>6</v>
       </c>
@@ -4393,12 +4619,16 @@
       <c r="C58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D58" t="str">
-        <f t="shared" si="0"/>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E58" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A58, ",", B58, ",", C58, ");")</f>
         <v>INSERT INTO VOTES VALUES(6,11,3);</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>6</v>
       </c>
@@ -4408,12 +4638,16 @@
       <c r="C59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D59" t="str">
-        <f t="shared" si="0"/>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="E59" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A59, ",", B59, ",", C59, ");")</f>
         <v>INSERT INTO VOTES VALUES(6,14,3);</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>6</v>
       </c>
@@ -4423,12 +4657,16 @@
       <c r="C60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D60" t="str">
-        <f t="shared" si="0"/>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="E60" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A60, ",", B60, ",", C60, ");")</f>
         <v>INSERT INTO VOTES VALUES(6,11,3);</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>5</v>
       </c>
@@ -4438,12 +4676,16 @@
       <c r="C61" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D61" t="str">
-        <f t="shared" si="0"/>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E61" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A61, ",", B61, ",", C61, ");")</f>
         <v>INSERT INTO VOTES VALUES(5,12,3);</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6</v>
       </c>
@@ -4453,12 +4695,16 @@
       <c r="C62" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D62" t="str">
-        <f t="shared" si="0"/>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E62" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A62, ",", B62, ",", C62, ");")</f>
         <v>INSERT INTO VOTES VALUES(6,13,3);</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5</v>
       </c>
@@ -4468,12 +4714,16 @@
       <c r="C63" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D63" t="str">
-        <f t="shared" si="0"/>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="E63" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A63, ",", B63, ",", C63, ");")</f>
         <v>INSERT INTO VOTES VALUES(5,11,3);</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6</v>
       </c>
@@ -4483,12 +4733,16 @@
       <c r="C64" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D64" t="str">
-        <f t="shared" si="0"/>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E64" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A64, ",", B64, ",", C64, ");")</f>
         <v>INSERT INTO VOTES VALUES(6,11,3);</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6</v>
       </c>
@@ -4498,12 +4752,16 @@
       <c r="C65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D65" t="str">
-        <f t="shared" si="0"/>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E65" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A65, ",", B65, ",", C65, ");")</f>
         <v>INSERT INTO VOTES VALUES(6,11,3);</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6</v>
       </c>
@@ -4513,12 +4771,16 @@
       <c r="C66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D66" t="str">
-        <f t="shared" si="0"/>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E66" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A66, ",", B66, ",", C66, ");")</f>
         <v>INSERT INTO VOTES VALUES(6,13,3);</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>5</v>
       </c>
@@ -4528,12 +4790,16 @@
       <c r="C67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D67" t="str">
-        <f t="shared" ref="D67:D130" si="1">CONCATENATE("INSERT INTO VOTES VALUES(",A67, ",", B67, ",", C67, ");")</f>
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="E67" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A67, ",", B67, ",", C67, ");")</f>
         <v>INSERT INTO VOTES VALUES(5,12,3);</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>5</v>
       </c>
@@ -4543,12 +4809,16 @@
       <c r="C68" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D68" t="str">
-        <f t="shared" si="1"/>
+      <c r="D68">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E68" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A68, ",", B68, ",", C68, ");")</f>
         <v>INSERT INTO VOTES VALUES(5,11,3);</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>6</v>
       </c>
@@ -4558,12 +4828,16 @@
       <c r="C69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D69" t="str">
-        <f t="shared" si="1"/>
+      <c r="D69">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E69" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A69, ",", B69, ",", C69, ");")</f>
         <v>INSERT INTO VOTES VALUES(6,11,3);</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>6</v>
       </c>
@@ -4573,12 +4847,16 @@
       <c r="C70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D70" t="str">
-        <f t="shared" si="1"/>
+      <c r="D70">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="E70" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A70, ",", B70, ",", C70, ");")</f>
         <v>INSERT INTO VOTES VALUES(6,11,3);</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>5</v>
       </c>
@@ -4588,12 +4866,16 @@
       <c r="C71" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D71" t="str">
-        <f t="shared" si="1"/>
+      <c r="D71">
+        <f t="shared" ref="D71:D134" si="1">D70+1</f>
+        <v>70</v>
+      </c>
+      <c r="E71" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A71, ",", B71, ",", C71, ");")</f>
         <v>INSERT INTO VOTES VALUES(5,14,3);</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>6</v>
       </c>
@@ -4603,12 +4885,16 @@
       <c r="C72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D72" t="str">
+      <c r="D72">
         <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="E72" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A72, ",", B72, ",", C72, ");")</f>
         <v>INSERT INTO VOTES VALUES(6,12,3);</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>6</v>
       </c>
@@ -4618,12 +4904,16 @@
       <c r="C73" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D73" t="str">
+      <c r="D73">
         <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="E73" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A73, ",", B73, ",", C73, ");")</f>
         <v>INSERT INTO VOTES VALUES(6,11,3);</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>5</v>
       </c>
@@ -4633,12 +4923,16 @@
       <c r="C74" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D74" t="str">
+      <c r="D74">
         <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="E74" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A74, ",", B74, ",", C74, ");")</f>
         <v>INSERT INTO VOTES VALUES(5,13,3);</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>5</v>
       </c>
@@ -4648,12 +4942,16 @@
       <c r="C75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D75" t="str">
+      <c r="D75">
         <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="E75" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A75, ",", B75, ",", C75, ");")</f>
         <v>INSERT INTO VOTES VALUES(5,14,3);</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>5</v>
       </c>
@@ -4663,12 +4961,16 @@
       <c r="C76" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D76" t="str">
+      <c r="D76">
         <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="E76" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A76, ",", B76, ",", C76, ");")</f>
         <v>INSERT INTO VOTES VALUES(5,12,3);</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>5</v>
       </c>
@@ -4678,12 +4980,16 @@
       <c r="C77" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D77" t="str">
+      <c r="D77">
         <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="E77" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A77, ",", B77, ",", C77, ");")</f>
         <v>INSERT INTO VOTES VALUES(5,13,3);</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>5</v>
       </c>
@@ -4693,12 +4999,16 @@
       <c r="C78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D78" t="str">
+      <c r="D78">
         <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="E78" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A78, ",", B78, ",", C78, ");")</f>
         <v>INSERT INTO VOTES VALUES(5,12,3);</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>6</v>
       </c>
@@ -4708,12 +5018,16 @@
       <c r="C79" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D79" t="str">
+      <c r="D79">
         <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="E79" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A79, ",", B79, ",", C79, ");")</f>
         <v>INSERT INTO VOTES VALUES(6,11,3);</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>8</v>
       </c>
@@ -4723,12 +5037,16 @@
       <c r="C80" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D80" t="str">
+      <c r="D80">
         <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="E80" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A80, ",", B80, ",", C80, ");")</f>
         <v>INSERT INTO VOTES VALUES(8,13,3);</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>8</v>
       </c>
@@ -4738,12 +5056,16 @@
       <c r="C81" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D81" t="str">
+      <c r="D81">
         <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E81" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A81, ",", B81, ",", C81, ");")</f>
         <v>INSERT INTO VOTES VALUES(8,14,3);</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>8</v>
       </c>
@@ -4753,12 +5075,16 @@
       <c r="C82" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D82" t="str">
+      <c r="D82">
         <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="E82" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A82, ",", B82, ",", C82, ");")</f>
         <v>INSERT INTO VOTES VALUES(8,14,3);</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>7</v>
       </c>
@@ -4768,12 +5094,16 @@
       <c r="C83" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D83" t="str">
+      <c r="D83">
         <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="E83" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A83, ",", B83, ",", C83, ");")</f>
         <v>INSERT INTO VOTES VALUES(7,13,3);</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>8</v>
       </c>
@@ -4783,12 +5113,16 @@
       <c r="C84" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D84" t="str">
+      <c r="D84">
         <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E84" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A84, ",", B84, ",", C84, ");")</f>
         <v>INSERT INTO VOTES VALUES(8,14,3);</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>8</v>
       </c>
@@ -4798,12 +5132,16 @@
       <c r="C85" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D85" t="str">
+      <c r="D85">
         <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="E85" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A85, ",", B85, ",", C85, ");")</f>
         <v>INSERT INTO VOTES VALUES(8,12,3);</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>7</v>
       </c>
@@ -4813,12 +5151,16 @@
       <c r="C86" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D86" t="str">
+      <c r="D86">
         <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="E86" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A86, ",", B86, ",", C86, ");")</f>
         <v>INSERT INTO VOTES VALUES(7,12,3);</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>7</v>
       </c>
@@ -4828,12 +5170,16 @@
       <c r="C87" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D87" t="str">
+      <c r="D87">
         <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="E87" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A87, ",", B87, ",", C87, ");")</f>
         <v>INSERT INTO VOTES VALUES(7,11,3);</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>8</v>
       </c>
@@ -4843,12 +5189,16 @@
       <c r="C88" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D88" t="str">
+      <c r="D88">
         <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="E88" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A88, ",", B88, ",", C88, ");")</f>
         <v>INSERT INTO VOTES VALUES(8,13,3);</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>7</v>
       </c>
@@ -4858,12 +5208,16 @@
       <c r="C89" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D89" t="str">
+      <c r="D89">
         <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="E89" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A89, ",", B89, ",", C89, ");")</f>
         <v>INSERT INTO VOTES VALUES(7,11,3);</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>8</v>
       </c>
@@ -4873,12 +5227,16 @@
       <c r="C90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D90" t="str">
+      <c r="D90">
         <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="E90" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A90, ",", B90, ",", C90, ");")</f>
         <v>INSERT INTO VOTES VALUES(8,11,3);</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>7</v>
       </c>
@@ -4888,12 +5246,16 @@
       <c r="C91" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D91" t="str">
+      <c r="D91">
         <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E91" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A91, ",", B91, ",", C91, ");")</f>
         <v>INSERT INTO VOTES VALUES(7,11,3);</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>8</v>
       </c>
@@ -4903,12 +5265,16 @@
       <c r="C92" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D92" t="str">
+      <c r="D92">
         <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E92" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A92, ",", B92, ",", C92, ");")</f>
         <v>INSERT INTO VOTES VALUES(8,13,3);</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>8</v>
       </c>
@@ -4918,12 +5284,16 @@
       <c r="C93" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D93" t="str">
+      <c r="D93">
         <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="E93" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A93, ",", B93, ",", C93, ");")</f>
         <v>INSERT INTO VOTES VALUES(8,11,3);</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>7</v>
       </c>
@@ -4933,12 +5303,16 @@
       <c r="C94" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D94" t="str">
+      <c r="D94">
         <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="E94" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A94, ",", B94, ",", C94, ");")</f>
         <v>INSERT INTO VOTES VALUES(7,14,3);</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>8</v>
       </c>
@@ -4948,12 +5322,16 @@
       <c r="C95" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D95" t="str">
+      <c r="D95">
         <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="E95" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A95, ",", B95, ",", C95, ");")</f>
         <v>INSERT INTO VOTES VALUES(8,11,3);</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>7</v>
       </c>
@@ -4963,12 +5341,16 @@
       <c r="C96" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D96" t="str">
+      <c r="D96">
         <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="E96" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A96, ",", B96, ",", C96, ");")</f>
         <v>INSERT INTO VOTES VALUES(7,14,3);</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>8</v>
       </c>
@@ -4978,12 +5360,16 @@
       <c r="C97" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D97" t="str">
+      <c r="D97">
         <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="E97" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A97, ",", B97, ",", C97, ");")</f>
         <v>INSERT INTO VOTES VALUES(8,11,3);</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>7</v>
       </c>
@@ -4993,12 +5379,16 @@
       <c r="C98" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D98" t="str">
+      <c r="D98">
         <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="E98" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A98, ",", B98, ",", C98, ");")</f>
         <v>INSERT INTO VOTES VALUES(7,12,3);</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>8</v>
       </c>
@@ -5008,12 +5398,16 @@
       <c r="C99" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D99" t="str">
+      <c r="D99">
         <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="E99" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A99, ",", B99, ",", C99, ");")</f>
         <v>INSERT INTO VOTES VALUES(8,14,3);</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>8</v>
       </c>
@@ -5023,12 +5417,16 @@
       <c r="C100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D100" t="str">
+      <c r="D100">
         <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="E100" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A100, ",", B100, ",", C100, ");")</f>
         <v>INSERT INTO VOTES VALUES(8,12,3);</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>7</v>
       </c>
@@ -5038,12 +5436,16 @@
       <c r="C101" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D101" t="str">
+      <c r="D101">
         <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E101" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A101, ",", B101, ",", C101, ");")</f>
         <v>INSERT INTO VOTES VALUES(7,12,3);</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>7</v>
       </c>
@@ -5053,12 +5455,16 @@
       <c r="C102" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D102" t="str">
+      <c r="D102">
         <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="E102" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A102, ",", B102, ",", C102, ");")</f>
         <v>INSERT INTO VOTES VALUES(7,13,3);</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>8</v>
       </c>
@@ -5068,12 +5474,16 @@
       <c r="C103" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D103" t="str">
+      <c r="D103">
         <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="E103" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A103, ",", B103, ",", C103, ");")</f>
         <v>INSERT INTO VOTES VALUES(8,11,3);</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>7</v>
       </c>
@@ -5083,12 +5493,16 @@
       <c r="C104" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D104" t="str">
+      <c r="D104">
         <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="E104" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A104, ",", B104, ",", C104, ");")</f>
         <v>INSERT INTO VOTES VALUES(7,12,3);</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>8</v>
       </c>
@@ -5098,12 +5512,16 @@
       <c r="C105" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D105" t="str">
+      <c r="D105">
         <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="E105" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A105, ",", B105, ",", C105, ");")</f>
         <v>INSERT INTO VOTES VALUES(8,12,3);</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>10</v>
       </c>
@@ -5113,12 +5531,16 @@
       <c r="C106" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D106" t="str">
+      <c r="D106">
         <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="E106" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A106, ",", B106, ",", C106, ");")</f>
         <v>INSERT INTO VOTES VALUES(10,11,3);</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>9</v>
       </c>
@@ -5128,12 +5550,16 @@
       <c r="C107" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D107" t="str">
+      <c r="D107">
         <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="E107" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A107, ",", B107, ",", C107, ");")</f>
         <v>INSERT INTO VOTES VALUES(9,11,3);</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>10</v>
       </c>
@@ -5143,12 +5569,16 @@
       <c r="C108" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D108" t="str">
+      <c r="D108">
         <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="E108" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A108, ",", B108, ",", C108, ");")</f>
         <v>INSERT INTO VOTES VALUES(10,12,3);</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>10</v>
       </c>
@@ -5158,12 +5588,16 @@
       <c r="C109" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D109" t="str">
+      <c r="D109">
         <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="E109" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A109, ",", B109, ",", C109, ");")</f>
         <v>INSERT INTO VOTES VALUES(10,12,3);</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>10</v>
       </c>
@@ -5173,12 +5607,16 @@
       <c r="C110" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D110" t="str">
+      <c r="D110">
         <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="E110" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A110, ",", B110, ",", C110, ");")</f>
         <v>INSERT INTO VOTES VALUES(10,14,3);</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>9</v>
       </c>
@@ -5188,12 +5626,16 @@
       <c r="C111" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D111" t="str">
+      <c r="D111">
         <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="E111" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A111, ",", B111, ",", C111, ");")</f>
         <v>INSERT INTO VOTES VALUES(9,11,3);</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>10</v>
       </c>
@@ -5203,12 +5645,16 @@
       <c r="C112" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D112" t="str">
+      <c r="D112">
         <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="E112" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A112, ",", B112, ",", C112, ");")</f>
         <v>INSERT INTO VOTES VALUES(10,11,3);</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>9</v>
       </c>
@@ -5218,12 +5664,16 @@
       <c r="C113" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D113" t="str">
+      <c r="D113">
         <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="E113" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A113, ",", B113, ",", C113, ");")</f>
         <v>INSERT INTO VOTES VALUES(9,12,3);</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>9</v>
       </c>
@@ -5233,12 +5683,16 @@
       <c r="C114" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D114" t="str">
+      <c r="D114">
         <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="E114" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A114, ",", B114, ",", C114, ");")</f>
         <v>INSERT INTO VOTES VALUES(9,11,3);</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>10</v>
       </c>
@@ -5248,12 +5702,16 @@
       <c r="C115" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D115" t="str">
+      <c r="D115">
         <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="E115" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A115, ",", B115, ",", C115, ");")</f>
         <v>INSERT INTO VOTES VALUES(10,14,3);</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>9</v>
       </c>
@@ -5263,12 +5721,16 @@
       <c r="C116" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D116" t="str">
+      <c r="D116">
         <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="E116" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A116, ",", B116, ",", C116, ");")</f>
         <v>INSERT INTO VOTES VALUES(9,14,3);</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>10</v>
       </c>
@@ -5278,12 +5740,16 @@
       <c r="C117" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D117" t="str">
+      <c r="D117">
         <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="E117" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A117, ",", B117, ",", C117, ");")</f>
         <v>INSERT INTO VOTES VALUES(10,11,3);</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>10</v>
       </c>
@@ -5293,12 +5759,16 @@
       <c r="C118" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D118" t="str">
+      <c r="D118">
         <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="E118" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A118, ",", B118, ",", C118, ");")</f>
         <v>INSERT INTO VOTES VALUES(10,11,3);</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>9</v>
       </c>
@@ -5308,12 +5778,16 @@
       <c r="C119" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D119" t="str">
+      <c r="D119">
         <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="E119" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A119, ",", B119, ",", C119, ");")</f>
         <v>INSERT INTO VOTES VALUES(9,14,3);</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>9</v>
       </c>
@@ -5323,12 +5797,16 @@
       <c r="C120" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D120" t="str">
+      <c r="D120">
         <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="E120" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A120, ",", B120, ",", C120, ");")</f>
         <v>INSERT INTO VOTES VALUES(9,12,3);</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>9</v>
       </c>
@@ -5338,12 +5816,16 @@
       <c r="C121" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D121" t="str">
+      <c r="D121">
         <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="E121" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A121, ",", B121, ",", C121, ");")</f>
         <v>INSERT INTO VOTES VALUES(9,11,3);</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>10</v>
       </c>
@@ -5353,12 +5835,16 @@
       <c r="C122" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D122" t="str">
+      <c r="D122">
         <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="E122" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A122, ",", B122, ",", C122, ");")</f>
         <v>INSERT INTO VOTES VALUES(10,13,3);</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>9</v>
       </c>
@@ -5368,12 +5854,16 @@
       <c r="C123" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D123" t="str">
+      <c r="D123">
         <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="E123" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A123, ",", B123, ",", C123, ");")</f>
         <v>INSERT INTO VOTES VALUES(9,12,3);</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>10</v>
       </c>
@@ -5383,12 +5873,16 @@
       <c r="C124" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D124" t="str">
+      <c r="D124">
         <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="E124" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A124, ",", B124, ",", C124, ");")</f>
         <v>INSERT INTO VOTES VALUES(10,13,3);</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>9</v>
       </c>
@@ -5398,12 +5892,16 @@
       <c r="C125" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D125" t="str">
+      <c r="D125">
         <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="E125" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A125, ",", B125, ",", C125, ");")</f>
         <v>INSERT INTO VOTES VALUES(9,12,3);</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>9</v>
       </c>
@@ -5413,12 +5911,16 @@
       <c r="C126" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D126" t="str">
+      <c r="D126">
         <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="E126" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A126, ",", B126, ",", C126, ");")</f>
         <v>INSERT INTO VOTES VALUES(9,11,3);</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>10</v>
       </c>
@@ -5428,12 +5930,16 @@
       <c r="C127" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D127" t="str">
+      <c r="D127">
         <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="E127" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A127, ",", B127, ",", C127, ");")</f>
         <v>INSERT INTO VOTES VALUES(10,14,3);</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>10</v>
       </c>
@@ -5443,12 +5949,16 @@
       <c r="C128" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D128" t="str">
+      <c r="D128">
         <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="E128" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A128, ",", B128, ",", C128, ");")</f>
         <v>INSERT INTO VOTES VALUES(10,13,3);</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>10</v>
       </c>
@@ -5458,12 +5968,16 @@
       <c r="C129" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D129" t="str">
+      <c r="D129">
         <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="E129" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A129, ",", B129, ",", C129, ");")</f>
         <v>INSERT INTO VOTES VALUES(10,11,3);</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>9</v>
       </c>
@@ -5473,12 +5987,16 @@
       <c r="C130" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D130" t="str">
+      <c r="D130">
         <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="E130" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A130, ",", B130, ",", C130, ");")</f>
         <v>INSERT INTO VOTES VALUES(9,12,3);</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>9</v>
       </c>
@@ -5488,12 +6006,16 @@
       <c r="C131" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D131" t="str">
-        <f t="shared" ref="D131:D194" si="2">CONCATENATE("INSERT INTO VOTES VALUES(",A131, ",", B131, ",", C131, ");")</f>
+      <c r="D131">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="E131" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A131, ",", B131, ",", C131, ");")</f>
         <v>INSERT INTO VOTES VALUES(9,11,3);</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>12</v>
       </c>
@@ -5503,12 +6025,16 @@
       <c r="C132" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D132" t="str">
-        <f t="shared" si="2"/>
+      <c r="D132">
+        <f t="shared" si="1"/>
+        <v>131</v>
+      </c>
+      <c r="E132" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A132, ",", B132, ",", C132, ");")</f>
         <v>INSERT INTO VOTES VALUES(12,13,3);</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>12</v>
       </c>
@@ -5518,12 +6044,16 @@
       <c r="C133" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D133" t="str">
-        <f t="shared" si="2"/>
+      <c r="D133">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="E133" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A133, ",", B133, ",", C133, ");")</f>
         <v>INSERT INTO VOTES VALUES(12,11,3);</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>11</v>
       </c>
@@ -5533,12 +6063,16 @@
       <c r="C134" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D134" t="str">
-        <f t="shared" si="2"/>
+      <c r="D134">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="E134" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A134, ",", B134, ",", C134, ");")</f>
         <v>INSERT INTO VOTES VALUES(11,13,3);</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>11</v>
       </c>
@@ -5548,12 +6082,16 @@
       <c r="C135" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D135" t="str">
-        <f t="shared" si="2"/>
+      <c r="D135">
+        <f t="shared" ref="D135:D198" si="2">D134+1</f>
+        <v>134</v>
+      </c>
+      <c r="E135" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A135, ",", B135, ",", C135, ");")</f>
         <v>INSERT INTO VOTES VALUES(11,13,3);</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>11</v>
       </c>
@@ -5563,12 +6101,16 @@
       <c r="C136" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D136" t="str">
+      <c r="D136">
         <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="E136" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A136, ",", B136, ",", C136, ");")</f>
         <v>INSERT INTO VOTES VALUES(11,13,3);</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>12</v>
       </c>
@@ -5578,12 +6120,16 @@
       <c r="C137" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D137" t="str">
+      <c r="D137">
         <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="E137" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A137, ",", B137, ",", C137, ");")</f>
         <v>INSERT INTO VOTES VALUES(12,12,3);</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>11</v>
       </c>
@@ -5593,12 +6139,16 @@
       <c r="C138" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D138" t="str">
+      <c r="D138">
         <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="E138" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A138, ",", B138, ",", C138, ");")</f>
         <v>INSERT INTO VOTES VALUES(11,11,3);</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>11</v>
       </c>
@@ -5608,12 +6158,16 @@
       <c r="C139" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D139" t="str">
+      <c r="D139">
         <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="E139" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A139, ",", B139, ",", C139, ");")</f>
         <v>INSERT INTO VOTES VALUES(11,14,3);</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>11</v>
       </c>
@@ -5623,12 +6177,16 @@
       <c r="C140" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D140" t="str">
+      <c r="D140">
         <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="E140" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A140, ",", B140, ",", C140, ");")</f>
         <v>INSERT INTO VOTES VALUES(11,11,3);</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>12</v>
       </c>
@@ -5638,12 +6196,16 @@
       <c r="C141" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D141" t="str">
+      <c r="D141">
         <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="E141" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A141, ",", B141, ",", C141, ");")</f>
         <v>INSERT INTO VOTES VALUES(12,11,3);</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>11</v>
       </c>
@@ -5653,12 +6215,16 @@
       <c r="C142" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D142" t="str">
+      <c r="D142">
         <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="E142" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A142, ",", B142, ",", C142, ");")</f>
         <v>INSERT INTO VOTES VALUES(11,14,3);</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>11</v>
       </c>
@@ -5668,12 +6234,16 @@
       <c r="C143" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D143" t="str">
+      <c r="D143">
         <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="E143" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A143, ",", B143, ",", C143, ");")</f>
         <v>INSERT INTO VOTES VALUES(11,11,3);</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>12</v>
       </c>
@@ -5683,12 +6253,16 @@
       <c r="C144" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D144" t="str">
+      <c r="D144">
         <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="E144" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A144, ",", B144, ",", C144, ");")</f>
         <v>INSERT INTO VOTES VALUES(12,14,3);</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>12</v>
       </c>
@@ -5698,12 +6272,16 @@
       <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D145" t="str">
+      <c r="D145">
         <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="E145" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A145, ",", B145, ",", C145, ");")</f>
         <v>INSERT INTO VOTES VALUES(12,11,3);</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>11</v>
       </c>
@@ -5713,12 +6291,16 @@
       <c r="C146" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D146" t="str">
+      <c r="D146">
         <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="E146" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A146, ",", B146, ",", C146, ");")</f>
         <v>INSERT INTO VOTES VALUES(11,12,3);</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>11</v>
       </c>
@@ -5728,12 +6310,16 @@
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D147" t="str">
+      <c r="D147">
         <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="E147" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A147, ",", B147, ",", C147, ");")</f>
         <v>INSERT INTO VOTES VALUES(11,11,3);</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>12</v>
       </c>
@@ -5743,12 +6329,16 @@
       <c r="C148" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D148" t="str">
+      <c r="D148">
         <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="E148" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A148, ",", B148, ",", C148, ");")</f>
         <v>INSERT INTO VOTES VALUES(12,12,3);</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>12</v>
       </c>
@@ -5758,12 +6348,16 @@
       <c r="C149" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D149" t="str">
+      <c r="D149">
         <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="E149" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A149, ",", B149, ",", C149, ");")</f>
         <v>INSERT INTO VOTES VALUES(12,12,3);</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>11</v>
       </c>
@@ -5773,12 +6367,16 @@
       <c r="C150" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D150" t="str">
+      <c r="D150">
         <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="E150" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A150, ",", B150, ",", C150, ");")</f>
         <v>INSERT INTO VOTES VALUES(11,14,3);</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>11</v>
       </c>
@@ -5788,12 +6386,16 @@
       <c r="C151" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D151" t="str">
+      <c r="D151">
         <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="E151" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A151, ",", B151, ",", C151, ");")</f>
         <v>INSERT INTO VOTES VALUES(11,11,3);</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>12</v>
       </c>
@@ -5803,12 +6405,16 @@
       <c r="C152" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D152" t="str">
+      <c r="D152">
         <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="E152" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A152, ",", B152, ",", C152, ");")</f>
         <v>INSERT INTO VOTES VALUES(12,11,3);</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>12</v>
       </c>
@@ -5818,12 +6424,16 @@
       <c r="C153" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D153" t="str">
+      <c r="D153">
         <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="E153" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A153, ",", B153, ",", C153, ");")</f>
         <v>INSERT INTO VOTES VALUES(12,12,3);</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>12</v>
       </c>
@@ -5833,12 +6443,16 @@
       <c r="C154" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D154" t="str">
+      <c r="D154">
         <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="E154" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A154, ",", B154, ",", C154, ");")</f>
         <v>INSERT INTO VOTES VALUES(12,11,3);</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>11</v>
       </c>
@@ -5848,12 +6462,16 @@
       <c r="C155" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D155" t="str">
+      <c r="D155">
         <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="E155" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A155, ",", B155, ",", C155, ");")</f>
         <v>INSERT INTO VOTES VALUES(11,13,3);</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>11</v>
       </c>
@@ -5863,12 +6481,16 @@
       <c r="C156" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D156" t="str">
+      <c r="D156">
         <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="E156" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A156, ",", B156, ",", C156, ");")</f>
         <v>INSERT INTO VOTES VALUES(11,11,3);</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>11</v>
       </c>
@@ -5878,12 +6500,16 @@
       <c r="C157" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D157" t="str">
+      <c r="D157">
         <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="E157" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A157, ",", B157, ",", C157, ");")</f>
         <v>INSERT INTO VOTES VALUES(11,11,3);</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>13</v>
       </c>
@@ -5893,12 +6519,16 @@
       <c r="C158" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D158" t="str">
+      <c r="D158">
         <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="E158" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A158, ",", B158, ",", C158, ");")</f>
         <v>INSERT INTO VOTES VALUES(13,13,3);</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>14</v>
       </c>
@@ -5908,12 +6538,16 @@
       <c r="C159" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D159" t="str">
+      <c r="D159">
         <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="E159" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A159, ",", B159, ",", C159, ");")</f>
         <v>INSERT INTO VOTES VALUES(14,12,3);</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>13</v>
       </c>
@@ -5923,12 +6557,16 @@
       <c r="C160" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D160" t="str">
+      <c r="D160">
         <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="E160" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A160, ",", B160, ",", C160, ");")</f>
         <v>INSERT INTO VOTES VALUES(13,13,3);</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>14</v>
       </c>
@@ -5938,12 +6576,16 @@
       <c r="C161" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D161" t="str">
+      <c r="D161">
         <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="E161" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A161, ",", B161, ",", C161, ");")</f>
         <v>INSERT INTO VOTES VALUES(14,11,3);</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>14</v>
       </c>
@@ -5953,12 +6595,16 @@
       <c r="C162" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D162" t="str">
+      <c r="D162">
         <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="E162" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A162, ",", B162, ",", C162, ");")</f>
         <v>INSERT INTO VOTES VALUES(14,14,3);</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>13</v>
       </c>
@@ -5968,12 +6614,16 @@
       <c r="C163" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D163" t="str">
+      <c r="D163">
         <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="E163" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A163, ",", B163, ",", C163, ");")</f>
         <v>INSERT INTO VOTES VALUES(13,11,3);</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>13</v>
       </c>
@@ -5983,12 +6633,16 @@
       <c r="C164" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D164" t="str">
+      <c r="D164">
         <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="E164" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A164, ",", B164, ",", C164, ");")</f>
         <v>INSERT INTO VOTES VALUES(13,12,3);</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>13</v>
       </c>
@@ -5998,12 +6652,16 @@
       <c r="C165" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D165" t="str">
+      <c r="D165">
         <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="E165" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A165, ",", B165, ",", C165, ");")</f>
         <v>INSERT INTO VOTES VALUES(13,12,3);</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>13</v>
       </c>
@@ -6013,12 +6671,16 @@
       <c r="C166" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D166" t="str">
+      <c r="D166">
         <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="E166" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A166, ",", B166, ",", C166, ");")</f>
         <v>INSERT INTO VOTES VALUES(13,14,3);</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>14</v>
       </c>
@@ -6028,12 +6690,16 @@
       <c r="C167" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D167" t="str">
+      <c r="D167">
         <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="E167" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A167, ",", B167, ",", C167, ");")</f>
         <v>INSERT INTO VOTES VALUES(14,14,3);</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>13</v>
       </c>
@@ -6043,12 +6709,16 @@
       <c r="C168" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D168" t="str">
+      <c r="D168">
         <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="E168" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A168, ",", B168, ",", C168, ");")</f>
         <v>INSERT INTO VOTES VALUES(13,13,3);</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>13</v>
       </c>
@@ -6058,12 +6728,16 @@
       <c r="C169" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D169" t="str">
+      <c r="D169">
         <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="E169" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A169, ",", B169, ",", C169, ");")</f>
         <v>INSERT INTO VOTES VALUES(13,13,3);</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>14</v>
       </c>
@@ -6073,12 +6747,16 @@
       <c r="C170" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D170" t="str">
+      <c r="D170">
         <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="E170" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A170, ",", B170, ",", C170, ");")</f>
         <v>INSERT INTO VOTES VALUES(14,11,3);</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>13</v>
       </c>
@@ -6088,12 +6766,16 @@
       <c r="C171" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D171" t="str">
+      <c r="D171">
         <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="E171" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A171, ",", B171, ",", C171, ");")</f>
         <v>INSERT INTO VOTES VALUES(13,13,3);</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>14</v>
       </c>
@@ -6103,12 +6785,16 @@
       <c r="C172" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D172" t="str">
+      <c r="D172">
         <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="E172" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A172, ",", B172, ",", C172, ");")</f>
         <v>INSERT INTO VOTES VALUES(14,13,3);</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>14</v>
       </c>
@@ -6118,12 +6804,16 @@
       <c r="C173" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D173" t="str">
+      <c r="D173">
         <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="E173" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A173, ",", B173, ",", C173, ");")</f>
         <v>INSERT INTO VOTES VALUES(14,13,3);</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>13</v>
       </c>
@@ -6133,12 +6823,16 @@
       <c r="C174" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D174" t="str">
+      <c r="D174">
         <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="E174" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A174, ",", B174, ",", C174, ");")</f>
         <v>INSERT INTO VOTES VALUES(13,12,3);</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>14</v>
       </c>
@@ -6148,12 +6842,16 @@
       <c r="C175" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D175" t="str">
+      <c r="D175">
         <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="E175" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A175, ",", B175, ",", C175, ");")</f>
         <v>INSERT INTO VOTES VALUES(14,13,3);</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>13</v>
       </c>
@@ -6163,12 +6861,16 @@
       <c r="C176" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D176" t="str">
+      <c r="D176">
         <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="E176" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A176, ",", B176, ",", C176, ");")</f>
         <v>INSERT INTO VOTES VALUES(13,14,3);</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>13</v>
       </c>
@@ -6178,12 +6880,16 @@
       <c r="C177" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D177" t="str">
+      <c r="D177">
         <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="E177" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A177, ",", B177, ",", C177, ");")</f>
         <v>INSERT INTO VOTES VALUES(13,12,3);</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>14</v>
       </c>
@@ -6193,12 +6899,16 @@
       <c r="C178" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D178" t="str">
+      <c r="D178">
         <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="E178" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A178, ",", B178, ",", C178, ");")</f>
         <v>INSERT INTO VOTES VALUES(14,14,3);</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>13</v>
       </c>
@@ -6208,12 +6918,16 @@
       <c r="C179" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D179" t="str">
+      <c r="D179">
         <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="E179" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A179, ",", B179, ",", C179, ");")</f>
         <v>INSERT INTO VOTES VALUES(13,13,3);</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>14</v>
       </c>
@@ -6223,12 +6937,16 @@
       <c r="C180" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D180" t="str">
+      <c r="D180">
         <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="E180" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A180, ",", B180, ",", C180, ");")</f>
         <v>INSERT INTO VOTES VALUES(14,12,3);</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>13</v>
       </c>
@@ -6238,12 +6956,16 @@
       <c r="C181" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D181" t="str">
+      <c r="D181">
         <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="E181" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A181, ",", B181, ",", C181, ");")</f>
         <v>INSERT INTO VOTES VALUES(13,14,3);</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>13</v>
       </c>
@@ -6253,12 +6975,16 @@
       <c r="C182" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D182" t="str">
+      <c r="D182">
         <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="E182" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A182, ",", B182, ",", C182, ");")</f>
         <v>INSERT INTO VOTES VALUES(13,11,3);</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>14</v>
       </c>
@@ -6268,12 +6994,16 @@
       <c r="C183" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D183" t="str">
+      <c r="D183">
         <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="E183" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A183, ",", B183, ",", C183, ");")</f>
         <v>INSERT INTO VOTES VALUES(14,11,3);</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>16</v>
       </c>
@@ -6283,12 +7013,16 @@
       <c r="C184" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D184" t="str">
+      <c r="D184">
         <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="E184" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A184, ",", B184, ",", C184, ");")</f>
         <v>INSERT INTO VOTES VALUES(16,11,3);</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>16</v>
       </c>
@@ -6298,12 +7032,16 @@
       <c r="C185" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D185" t="str">
+      <c r="D185">
         <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="E185" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A185, ",", B185, ",", C185, ");")</f>
         <v>INSERT INTO VOTES VALUES(16,13,3);</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>16</v>
       </c>
@@ -6313,12 +7051,16 @@
       <c r="C186" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D186" t="str">
+      <c r="D186">
         <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="E186" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A186, ",", B186, ",", C186, ");")</f>
         <v>INSERT INTO VOTES VALUES(16,13,3);</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>16</v>
       </c>
@@ -6328,12 +7070,16 @@
       <c r="C187" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D187" t="str">
+      <c r="D187">
         <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="E187" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A187, ",", B187, ",", C187, ");")</f>
         <v>INSERT INTO VOTES VALUES(16,14,3);</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>16</v>
       </c>
@@ -6343,12 +7089,16 @@
       <c r="C188" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D188" t="str">
+      <c r="D188">
         <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="E188" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A188, ",", B188, ",", C188, ");")</f>
         <v>INSERT INTO VOTES VALUES(16,11,3);</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>15</v>
       </c>
@@ -6358,12 +7108,16 @@
       <c r="C189" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D189" t="str">
+      <c r="D189">
         <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="E189" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A189, ",", B189, ",", C189, ");")</f>
         <v>INSERT INTO VOTES VALUES(15,11,3);</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>15</v>
       </c>
@@ -6373,12 +7127,16 @@
       <c r="C190" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D190" t="str">
+      <c r="D190">
         <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="E190" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A190, ",", B190, ",", C190, ");")</f>
         <v>INSERT INTO VOTES VALUES(15,11,3);</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>15</v>
       </c>
@@ -6388,12 +7146,16 @@
       <c r="C191" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D191" t="str">
+      <c r="D191">
         <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="E191" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A191, ",", B191, ",", C191, ");")</f>
         <v>INSERT INTO VOTES VALUES(15,11,3);</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>16</v>
       </c>
@@ -6403,12 +7165,16 @@
       <c r="C192" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D192" t="str">
+      <c r="D192">
         <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="E192" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A192, ",", B192, ",", C192, ");")</f>
         <v>INSERT INTO VOTES VALUES(16,14,3);</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>16</v>
       </c>
@@ -6418,12 +7184,16 @@
       <c r="C193" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D193" t="str">
+      <c r="D193">
         <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="E193" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A193, ",", B193, ",", C193, ");")</f>
         <v>INSERT INTO VOTES VALUES(16,12,3);</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>16</v>
       </c>
@@ -6433,12 +7203,16 @@
       <c r="C194" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D194" t="str">
+      <c r="D194">
         <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="E194" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A194, ",", B194, ",", C194, ");")</f>
         <v>INSERT INTO VOTES VALUES(16,12,3);</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>15</v>
       </c>
@@ -6448,12 +7222,16 @@
       <c r="C195" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D195" t="str">
-        <f t="shared" ref="D195:D235" si="3">CONCATENATE("INSERT INTO VOTES VALUES(",A195, ",", B195, ",", C195, ");")</f>
+      <c r="D195">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="E195" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A195, ",", B195, ",", C195, ");")</f>
         <v>INSERT INTO VOTES VALUES(15,11,3);</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>16</v>
       </c>
@@ -6463,12 +7241,16 @@
       <c r="C196" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D196" t="str">
-        <f t="shared" si="3"/>
+      <c r="D196">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="E196" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A196, ",", B196, ",", C196, ");")</f>
         <v>INSERT INTO VOTES VALUES(16,14,3);</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>16</v>
       </c>
@@ -6478,12 +7260,16 @@
       <c r="C197" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D197" t="str">
-        <f t="shared" si="3"/>
+      <c r="D197">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="E197" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A197, ",", B197, ",", C197, ");")</f>
         <v>INSERT INTO VOTES VALUES(16,12,3);</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>15</v>
       </c>
@@ -6493,12 +7279,16 @@
       <c r="C198" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D198" t="str">
-        <f t="shared" si="3"/>
+      <c r="D198">
+        <f t="shared" si="2"/>
+        <v>197</v>
+      </c>
+      <c r="E198" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A198, ",", B198, ",", C198, ");")</f>
         <v>INSERT INTO VOTES VALUES(15,13,3);</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>16</v>
       </c>
@@ -6508,12 +7298,16 @@
       <c r="C199" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D199" t="str">
-        <f t="shared" si="3"/>
+      <c r="D199">
+        <f t="shared" ref="D199:D235" si="3">D198+1</f>
+        <v>198</v>
+      </c>
+      <c r="E199" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A199, ",", B199, ",", C199, ");")</f>
         <v>INSERT INTO VOTES VALUES(16,14,3);</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>15</v>
       </c>
@@ -6523,12 +7317,16 @@
       <c r="C200" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D200" t="str">
+      <c r="D200">
         <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="E200" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A200, ",", B200, ",", C200, ");")</f>
         <v>INSERT INTO VOTES VALUES(15,14,3);</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>15</v>
       </c>
@@ -6538,12 +7336,16 @@
       <c r="C201" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D201" t="str">
+      <c r="D201">
         <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="E201" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A201, ",", B201, ",", C201, ");")</f>
         <v>INSERT INTO VOTES VALUES(15,11,3);</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>16</v>
       </c>
@@ -6553,12 +7355,16 @@
       <c r="C202" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D202" t="str">
+      <c r="D202">
         <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="E202" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A202, ",", B202, ",", C202, ");")</f>
         <v>INSERT INTO VOTES VALUES(16,11,3);</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>16</v>
       </c>
@@ -6568,12 +7374,16 @@
       <c r="C203" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D203" t="str">
+      <c r="D203">
         <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="E203" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A203, ",", B203, ",", C203, ");")</f>
         <v>INSERT INTO VOTES VALUES(16,12,3);</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>15</v>
       </c>
@@ -6583,12 +7393,16 @@
       <c r="C204" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D204" t="str">
+      <c r="D204">
         <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="E204" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A204, ",", B204, ",", C204, ");")</f>
         <v>INSERT INTO VOTES VALUES(15,14,3);</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>16</v>
       </c>
@@ -6598,12 +7412,16 @@
       <c r="C205" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D205" t="str">
+      <c r="D205">
         <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="E205" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A205, ",", B205, ",", C205, ");")</f>
         <v>INSERT INTO VOTES VALUES(16,11,3);</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>15</v>
       </c>
@@ -6613,12 +7431,16 @@
       <c r="C206" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D206" t="str">
+      <c r="D206">
         <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="E206" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A206, ",", B206, ",", C206, ");")</f>
         <v>INSERT INTO VOTES VALUES(15,13,3);</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>16</v>
       </c>
@@ -6628,12 +7450,16 @@
       <c r="C207" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D207" t="str">
+      <c r="D207">
         <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+      <c r="E207" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A207, ",", B207, ",", C207, ");")</f>
         <v>INSERT INTO VOTES VALUES(16,11,3);</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>15</v>
       </c>
@@ -6643,12 +7469,16 @@
       <c r="C208" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D208" t="str">
+      <c r="D208">
         <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="E208" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A208, ",", B208, ",", C208, ");")</f>
         <v>INSERT INTO VOTES VALUES(15,14,3);</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>15</v>
       </c>
@@ -6658,12 +7488,16 @@
       <c r="C209" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D209" t="str">
+      <c r="D209">
         <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="E209" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A209, ",", B209, ",", C209, ");")</f>
         <v>INSERT INTO VOTES VALUES(15,11,3);</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>18</v>
       </c>
@@ -6673,12 +7507,16 @@
       <c r="C210" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D210" t="str">
+      <c r="D210">
         <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
+      <c r="E210" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A210, ",", B210, ",", C210, ");")</f>
         <v>INSERT INTO VOTES VALUES(18,13,3);</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>18</v>
       </c>
@@ -6688,12 +7526,16 @@
       <c r="C211" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D211" t="str">
+      <c r="D211">
         <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+      <c r="E211" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A211, ",", B211, ",", C211, ");")</f>
         <v>INSERT INTO VOTES VALUES(18,12,3);</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>18</v>
       </c>
@@ -6703,12 +7545,16 @@
       <c r="C212" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D212" t="str">
+      <c r="D212">
         <f t="shared" si="3"/>
+        <v>211</v>
+      </c>
+      <c r="E212" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A212, ",", B212, ",", C212, ");")</f>
         <v>INSERT INTO VOTES VALUES(18,12,3);</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>17</v>
       </c>
@@ -6718,12 +7564,16 @@
       <c r="C213" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D213" t="str">
+      <c r="D213">
         <f t="shared" si="3"/>
+        <v>212</v>
+      </c>
+      <c r="E213" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A213, ",", B213, ",", C213, ");")</f>
         <v>INSERT INTO VOTES VALUES(17,12,3);</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>17</v>
       </c>
@@ -6733,12 +7583,16 @@
       <c r="C214" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D214" t="str">
+      <c r="D214">
         <f t="shared" si="3"/>
+        <v>213</v>
+      </c>
+      <c r="E214" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A214, ",", B214, ",", C214, ");")</f>
         <v>INSERT INTO VOTES VALUES(17,11,3);</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>17</v>
       </c>
@@ -6748,12 +7602,16 @@
       <c r="C215" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D215" t="str">
+      <c r="D215">
         <f t="shared" si="3"/>
+        <v>214</v>
+      </c>
+      <c r="E215" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A215, ",", B215, ",", C215, ");")</f>
         <v>INSERT INTO VOTES VALUES(17,13,3);</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>17</v>
       </c>
@@ -6763,12 +7621,16 @@
       <c r="C216" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D216" t="str">
+      <c r="D216">
         <f t="shared" si="3"/>
+        <v>215</v>
+      </c>
+      <c r="E216" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A216, ",", B216, ",", C216, ");")</f>
         <v>INSERT INTO VOTES VALUES(17,14,3);</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>18</v>
       </c>
@@ -6778,12 +7640,16 @@
       <c r="C217" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D217" t="str">
+      <c r="D217">
         <f t="shared" si="3"/>
+        <v>216</v>
+      </c>
+      <c r="E217" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A217, ",", B217, ",", C217, ");")</f>
         <v>INSERT INTO VOTES VALUES(18,14,3);</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>17</v>
       </c>
@@ -6793,12 +7659,16 @@
       <c r="C218" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D218" t="str">
+      <c r="D218">
         <f t="shared" si="3"/>
+        <v>217</v>
+      </c>
+      <c r="E218" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A218, ",", B218, ",", C218, ");")</f>
         <v>INSERT INTO VOTES VALUES(17,14,3);</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>17</v>
       </c>
@@ -6808,12 +7678,16 @@
       <c r="C219" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D219" t="str">
+      <c r="D219">
         <f t="shared" si="3"/>
+        <v>218</v>
+      </c>
+      <c r="E219" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A219, ",", B219, ",", C219, ");")</f>
         <v>INSERT INTO VOTES VALUES(17,11,3);</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>18</v>
       </c>
@@ -6823,12 +7697,16 @@
       <c r="C220" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D220" t="str">
+      <c r="D220">
         <f t="shared" si="3"/>
+        <v>219</v>
+      </c>
+      <c r="E220" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A220, ",", B220, ",", C220, ");")</f>
         <v>INSERT INTO VOTES VALUES(18,13,3);</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>18</v>
       </c>
@@ -6838,12 +7716,16 @@
       <c r="C221" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D221" t="str">
+      <c r="D221">
         <f t="shared" si="3"/>
+        <v>220</v>
+      </c>
+      <c r="E221" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A221, ",", B221, ",", C221, ");")</f>
         <v>INSERT INTO VOTES VALUES(18,14,3);</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>18</v>
       </c>
@@ -6853,12 +7735,16 @@
       <c r="C222" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D222" t="str">
+      <c r="D222">
         <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
+      <c r="E222" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A222, ",", B222, ",", C222, ");")</f>
         <v>INSERT INTO VOTES VALUES(18,13,3);</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>18</v>
       </c>
@@ -6868,12 +7754,16 @@
       <c r="C223" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D223" t="str">
+      <c r="D223">
         <f t="shared" si="3"/>
+        <v>222</v>
+      </c>
+      <c r="E223" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A223, ",", B223, ",", C223, ");")</f>
         <v>INSERT INTO VOTES VALUES(18,13,3);</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>18</v>
       </c>
@@ -6883,12 +7773,16 @@
       <c r="C224" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D224" t="str">
+      <c r="D224">
         <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+      <c r="E224" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A224, ",", B224, ",", C224, ");")</f>
         <v>INSERT INTO VOTES VALUES(18,12,3);</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>17</v>
       </c>
@@ -6898,12 +7792,16 @@
       <c r="C225" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D225" t="str">
+      <c r="D225">
         <f t="shared" si="3"/>
+        <v>224</v>
+      </c>
+      <c r="E225" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A225, ",", B225, ",", C225, ");")</f>
         <v>INSERT INTO VOTES VALUES(17,14,3);</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>17</v>
       </c>
@@ -6913,12 +7811,16 @@
       <c r="C226" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D226" t="str">
+      <c r="D226">
         <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="E226" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A226, ",", B226, ",", C226, ");")</f>
         <v>INSERT INTO VOTES VALUES(17,13,3);</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>17</v>
       </c>
@@ -6928,12 +7830,16 @@
       <c r="C227" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D227" t="str">
+      <c r="D227">
         <f t="shared" si="3"/>
+        <v>226</v>
+      </c>
+      <c r="E227" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A227, ",", B227, ",", C227, ");")</f>
         <v>INSERT INTO VOTES VALUES(17,12,3);</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>17</v>
       </c>
@@ -6943,12 +7849,16 @@
       <c r="C228" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D228" t="str">
+      <c r="D228">
         <f t="shared" si="3"/>
+        <v>227</v>
+      </c>
+      <c r="E228" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A228, ",", B228, ",", C228, ");")</f>
         <v>INSERT INTO VOTES VALUES(17,13,3);</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>18</v>
       </c>
@@ -6958,12 +7868,16 @@
       <c r="C229" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D229" t="str">
+      <c r="D229">
         <f t="shared" si="3"/>
+        <v>228</v>
+      </c>
+      <c r="E229" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A229, ",", B229, ",", C229, ");")</f>
         <v>INSERT INTO VOTES VALUES(18,14,3);</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>17</v>
       </c>
@@ -6973,12 +7887,16 @@
       <c r="C230" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D230" t="str">
+      <c r="D230">
         <f t="shared" si="3"/>
+        <v>229</v>
+      </c>
+      <c r="E230" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A230, ",", B230, ",", C230, ");")</f>
         <v>INSERT INTO VOTES VALUES(17,14,3);</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>17</v>
       </c>
@@ -6988,12 +7906,16 @@
       <c r="C231" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D231" t="str">
+      <c r="D231">
         <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="E231" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A231, ",", B231, ",", C231, ");")</f>
         <v>INSERT INTO VOTES VALUES(17,14,3);</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>18</v>
       </c>
@@ -7003,12 +7925,16 @@
       <c r="C232" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D232" t="str">
+      <c r="D232">
         <f t="shared" si="3"/>
+        <v>231</v>
+      </c>
+      <c r="E232" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A232, ",", B232, ",", C232, ");")</f>
         <v>INSERT INTO VOTES VALUES(18,11,3);</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>17</v>
       </c>
@@ -7018,12 +7944,16 @@
       <c r="C233" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D233" t="str">
+      <c r="D233">
         <f t="shared" si="3"/>
+        <v>232</v>
+      </c>
+      <c r="E233" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A233, ",", B233, ",", C233, ");")</f>
         <v>INSERT INTO VOTES VALUES(17,12,3);</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>18</v>
       </c>
@@ -7033,12 +7963,16 @@
       <c r="C234" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D234" t="str">
+      <c r="D234">
         <f t="shared" si="3"/>
+        <v>233</v>
+      </c>
+      <c r="E234" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A234, ",", B234, ",", C234, ");")</f>
         <v>INSERT INTO VOTES VALUES(18,12,3);</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>18</v>
       </c>
@@ -7048,8 +7982,12 @@
       <c r="C235" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D235" t="str">
+      <c r="D235">
         <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="E235" t="str">
+        <f>CONCATENATE("INSERT INTO VOTES VALUES(",A235, ",", B235, ",", C235, ");")</f>
         <v>INSERT INTO VOTES VALUES(18,14,3);</v>
       </c>
     </row>
